--- a/arch/MSEIR.xlsx
+++ b/arch/MSEIR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,13 +43,19 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.99</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>0.01</t>
   </si>
   <si>
-    <t>0.0</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>β (скорость заражения)</t>
@@ -67,16 +73,13 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t>0.35</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>0.15</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>0.25</t>
   </si>
   <si>
     <t>Метод решения:</t>
@@ -210,11 +213,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$C$4</c:f>
+              <c:f>'Решение'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S</c:v>
+                  <c:v>M</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -536,312 +539,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$C$5:$C$105</c:f>
+              <c:f>'Решение'!$B$5:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9393144102479263</c:v>
+                  <c:v>0.07682381510416667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8919271872640839</c:v>
+                  <c:v>0.1023394173778924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8475149279469585</c:v>
+                  <c:v>0.1266106091104147</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.805828523219091</c:v>
+                  <c:v>0.1496980809167716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7666662153874412</c:v>
+                  <c:v>0.1716595634959351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7298574550543715</c:v>
+                  <c:v>0.1925499719876135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6952530925021883</c:v>
+                  <c:v>0.2124215432886895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6627193261910821</c:v>
+                  <c:v>0.2313239666726576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6321339039500127</c:v>
+                  <c:v>0.2493045080386762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6033836897837678</c:v>
+                  <c:v>0.2664081281009222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5763630681324518</c:v>
+                  <c:v>0.2826775948137835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5509728680232946</c:v>
+                  <c:v>0.2981535903140099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5271196142074818</c:v>
+                  <c:v>0.3128748126472345</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5047149867883879</c:v>
+                  <c:v>0.3268780725332341</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4836754156679288</c:v>
+                  <c:v>0.3401983854118926</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4639217633980678</c:v>
+                  <c:v>0.3528690590000296</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.445379066788877</c:v>
+                  <c:v>0.3649217765780332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.427976318066714</c:v>
+                  <c:v>0.3763866762145546</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4116462729769109</c:v>
+                  <c:v>0.3872924261273709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.396325277468162</c:v>
+                  <c:v>0.3976662963688532</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3819531073727653</c:v>
+                  <c:v>0.4075342270152953</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3684728173484012</c:v>
+                  <c:v>0.4169208930306085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3558305966032868</c:v>
+                  <c:v>0.4258497659665774</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3439756297911297</c:v>
+                  <c:v>0.4343431726539591</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3328599620630171</c:v>
+                  <c:v>0.4424223510311828</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3224383676817837</c:v>
+                  <c:v>0.4501075032502534</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3126682218938752</c:v>
+                  <c:v>0.4574178461926482</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3035093759502438</c:v>
+                  <c:v>0.464371659521525</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2949240352964033</c:v>
+                  <c:v>0.470986331390397</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2868766410304118</c:v>
+                  <c:v>0.4772784019225683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.2793337547695647</c:v>
+                  <c:v>0.4832636045700535</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2722639470820064</c:v>
+                  <c:v>0.4889569054553985</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.2656376896360702</c:v>
+                  <c:v>0.4943725407947783</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2594272512038941</c:v>
+                  <c:v>0.4995240524959488</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.2536065976313719</c:v>
+                  <c:v>0.5044243220200664</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.24815129585733</c:v>
+                  <c:v>0.5090856025920466</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.2430384220336496</c:v>
+                  <c:v>0.513519549840006</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.2382464737668493</c:v>
+                  <c:v>0.5177372509404001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.2337552864718175</c:v>
+                  <c:v>0.5217492523417367</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2295459538008859</c:v>
+                  <c:v>0.5255655861361878</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2256007520868485</c:v>
+                  <c:v>0.5291957951450421</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.2219030687171801</c:v>
+                  <c:v>0.5326489567807274</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.2184373343386833</c:v>
+                  <c:v>0.5359337057450665</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2151889587770469</c:v>
+                  <c:v>0.5390582556205273</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2121442705441667</c:v>
+                  <c:v>0.5420304194084553</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.2092904597973312</c:v>
+                  <c:v>0.5448576290656438</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2066155246082251</c:v>
+                  <c:v>0.5475469540880957</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2041082203958648</c:v>
+                  <c:v>0.5501051191884435</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2017580123757428</c:v>
+                  <c:v>0.5525385211112319</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1995550308773315</c:v>
+                  <c:v>0.5548532446281094</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1974900293834036</c:v>
+                  <c:v>0.5570550777529251</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.195554345147111</c:v>
+                  <c:v>0.5591495262147766</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1937398622461917</c:v>
+                  <c:v>0.5611418272251992</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1920389769378442</c:v>
+                  <c:v>0.5630369625739211</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1904445651825365</c:v>
+                  <c:v>0.5648396710859311</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1889499522101479</c:v>
+                  <c:v>0.5665544604710088</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1875488840072468</c:v>
+                  <c:v>0.5681856185953447</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1862355006098673</c:v>
+                  <c:v>0.5697372242034391</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1850043110917838</c:v>
+                  <c:v>0.571213157117086</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1838501701439008</c:v>
+                  <c:v>0.5726171079369478</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1827682561459357</c:v>
+                  <c:v>0.5739525872709781</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1817540506370108</c:v>
+                  <c:v>0.5752229345127694</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.1808033190970631</c:v>
+                  <c:v>0.5764313261917754</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1799120929560871</c:v>
+                  <c:v>0.5775807839162885</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1790766527531427</c:v>
+                  <c:v>0.5786741819290336</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1782935123717591</c:v>
+                  <c:v>0.5797142542942713</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1775594042828491</c:v>
+                  <c:v>0.5807036017343814</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.1768712657305086</c:v>
+                  <c:v>0.5816446981330238</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.1762262258001141</c:v>
+                  <c:v>0.5825398967211346</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1756215933119485</c:v>
+                  <c:v>0.583391435961229</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.1750548454871925</c:v>
+                  <c:v>0.5842014451447231</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.1745236173365084</c:v>
+                  <c:v>0.5849719497162703</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.1740256917246427</c:v>
+                  <c:v>0.5857048763384283</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1735589900674696</c:v>
+                  <c:v>0.5864020577093177</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.1731215636207175</c:v>
+                  <c:v>0.5870652371453221</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.1727115853222592</c:v>
+                  <c:v>0.5876960729402859</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1723273421523204</c:v>
+                  <c:v>0.588296142512113</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.1719672279782814</c:v>
+                  <c:v>0.5888669463471323</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.1716297368529098</c:v>
+                  <c:v>0.5894099117520947</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.171313456736896</c:v>
+                  <c:v>0.5899263964231831</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1710170636184553</c:v>
+                  <c:v>0.5904176918409598</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1707393160045374</c:v>
+                  <c:v>0.5908850264997403</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.1704790497598373</c:v>
+                  <c:v>0.5913295689794682</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.170235173271355</c:v>
+                  <c:v>0.591752430867774</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1700066629176931</c:v>
+                  <c:v>0.5921546695395224</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1697925588236376</c:v>
+                  <c:v>0.5925372908008005</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.1695919608818267</c:v>
+                  <c:v>0.592901251403956</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.1694040250244935</c:v>
+                  <c:v>0.5932474614399764</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.1692279597293714</c:v>
+                  <c:v>0.5935767866141907</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.1690630227448767</c:v>
+                  <c:v>0.5938900504109826</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.1689085180206486</c:v>
+                  <c:v>0.5941880361529309</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.1687637928304234</c:v>
+                  <c:v>0.5944714889595234</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.1686282350750569</c:v>
+                  <c:v>0.5947411176103435</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.1685012707542977</c:v>
+                  <c:v>0.5949975963173885</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.1683823615966418</c:v>
+                  <c:v>0.5952415664109498</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.1682710028372881</c:v>
+                  <c:v>0.5954736379432737</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.1681667211348501</c:v>
+                  <c:v>0.5956943912140085</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.1680690726180812</c:v>
+                  <c:v>0.5959043782212563</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.1679776410544265</c:v>
+                  <c:v>0.5961041240418556</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.1678920361327398</c:v>
+                  <c:v>0.5962941281443466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,11 +855,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$D$4</c:f>
+              <c:f>'Решение'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E</c:v>
+                  <c:v>S</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1178,312 +1181,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$D$5:$D$105</c:f>
+              <c:f>'Решение'!$C$5:$C$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.002390691960141525</c:v>
+                  <c:v>0.8583894873618806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003922425699822409</c:v>
+                  <c:v>0.8276067947402597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.004907197812413925</c:v>
+                  <c:v>0.7978321060864366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.005536802280396391</c:v>
+                  <c:v>0.769159899038444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.005930291318447181</c:v>
+                  <c:v>0.741635806013786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.006162421562644282</c:v>
+                  <c:v>0.7152774205506993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.006280828253905846</c:v>
+                  <c:v>0.6900859960486143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.006316458159542947</c:v>
+                  <c:v>0.6660529894967518</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.006289939158547302</c:v>
+                  <c:v>0.6431636979266647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.006215483474839467</c:v>
+                  <c:v>0.6213992670599237</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.006103284732506965</c:v>
+                  <c:v>0.6007378010182171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.005960990542243299</c:v>
+                  <c:v>0.5811549877790796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.005794605563301952</c:v>
+                  <c:v>0.5626244749429424</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.005609043055632168</c:v>
+                  <c:v>0.5451181266130601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.005408459626296374</c:v>
+                  <c:v>0.528606232190185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.005196456808082124</c:v>
+                  <c:v>0.5130577031781266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.004976201576273078</c:v>
+                  <c:v>0.4984402741536217</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.004750498300239051</c:v>
+                  <c:v>0.4847207128185818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.004521832350065565</c:v>
+                  <c:v>0.4718650380016985</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.004292397848063357</c:v>
+                  <c:v>0.459838741528502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.004064117166465778</c:v>
+                  <c:v>0.4486070087822094</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00383865667579871</c:v>
+                  <c:v>0.4381349327634806</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.003617441290803658</c:v>
+                  <c:v>0.4283877170447871</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.003401669133261045</c:v>
+                  <c:v>0.4193308638999862</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.003192326874435098</c:v>
+                  <c:v>0.4109303448786535</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.002990205868183848</c:v>
+                  <c:v>0.4031527520672987</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.002795918931558168</c:v>
+                  <c:v>0.3959654291641173</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.002609917502553884</c:v>
+                  <c:v>0.3893365822520687</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.002432508858017447</c:v>
+                  <c:v>0.3832353707712367</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.002263873077513976</c:v>
+                  <c:v>0.3776319796652725</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.002104079470510745</c:v>
+                  <c:v>0.3724976740176458</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.001953102230691305</c:v>
+                  <c:v>0.3678048377165694</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.001810835133494008</c:v>
+                  <c:v>0.3635269978107144</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.001677105145214528</c:v>
+                  <c:v>0.3596388362597887</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.001551684860631473</c:v>
+                  <c:v>0.3561161907625854</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.001434303729079412</c:v>
+                  <c:v>0.3529360462764709</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.001324658065253981</c:v>
+                  <c:v>0.3500765187406437</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.001222419870566386</c:v>
+                  <c:v>0.3475168323927528</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.001127244513822673</c:v>
+                  <c:v>0.3452372919342284</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.001038777336932219</c:v>
+                  <c:v>0.3432192506614877</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0009566592629577131</c:v>
+                  <c:v>0.3414450755436799</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.0008805314908816332</c:v>
+                  <c:v>0.3398981100968623</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.0008100393647626635</c:v>
+                  <c:v>0.338562635782191</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0007448355052325679</c:v>
+                  <c:v>0.3374238325434977</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0006845822892182789</c:v>
+                  <c:v>0.3364677389983434</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.000628953759965615</c:v>
+                  <c:v>0.3356812127064897</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.0005776370444060569</c:v>
+                  <c:v>0.3350518908604634</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.0005303333490786395</c:v>
+                  <c:v>0.334568151673959</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0004867585995481696</c:v>
+                  <c:v>0.334219076684475</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.0004466437818291286</c:v>
+                  <c:v>0.3339944141359742</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0004097350379480471</c:v>
+                  <c:v>0.3338845435645802</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0003757935616167369</c:v>
+                  <c:v>0.33388044167449</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.000344595334158617</c:v>
+                  <c:v>0.333973649561536</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0003159307354060474</c:v>
+                  <c:v>0.3341562413173577</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0002896040593125281</c:v>
+                  <c:v>0.3344207940272182</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.000265432959519866</c:v>
+                  <c:v>0.3347603591584484</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0002432478460882472</c:v>
+                  <c:v>0.335168435323737</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0002228912510240678</c:v>
+                  <c:v>0.3356389423934902</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0002042171771040232</c:v>
+                  <c:v>0.336166196923798</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.000187090441765499</c:v>
+                  <c:v>0.3367448888607886</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.000171386025479989</c:v>
+                  <c:v>0.3373700594779763</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.0001569884320134606</c:v>
+                  <c:v>0.338037080500345</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0001437910662703358</c:v>
+                  <c:v>0.3387416343670963</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0001316956339818986</c:v>
+                  <c:v>0.3394796955840456</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0001206115663028922</c:v>
+                  <c:v>0.3402475131163836</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0001104554713913801</c:v>
+                  <c:v>0.3410415937728039</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0001011506142385666</c:v>
+                  <c:v>0.3418586865327018</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.262642536175461e-05</c:v>
+                  <c:v>0.3426957677691905</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.481803845209824e-05</c:v>
+                  <c:v>0.3435500273219583</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.766585665898462e-05</c:v>
+                  <c:v>0.3444188553754637</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.111514687686786e-05</c:v>
+                  <c:v>0.3452998300995553</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.511566116256765e-05</c:v>
+                  <c:v>0.3461907060112834</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.962128423790449e-05</c:v>
+                  <c:v>0.3470894030184031</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.458970591243388e-05</c:v>
+                  <c:v>0.3479939961068144</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.998211718401732e-05</c:v>
+                  <c:v>0.3489027056359413</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.57629287325883e-05</c:v>
+                  <c:v>0.3498138882077788</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.189951050761806e-05</c:v>
+                  <c:v>0.3507260280770427</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.836195111649563e-05</c:v>
+                  <c:v>0.3516377290715126</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.512283574434814e-05</c:v>
+                  <c:v>0.3525477069932708</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.21570413716375e-05</c:v>
+                  <c:v>0.3534547824730931</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.944154810081387e-05</c:v>
+                  <c:v>0.3543578742517448</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.695526545464462e-05</c:v>
+                  <c:v>0.3552559928633681</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.467887256435796e-05</c:v>
+                  <c:v>0.3561482346975235</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.259467122367533e-05</c:v>
+                  <c:v>0.3570337764177526</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.068645084375932e-05</c:v>
+                  <c:v>0.3579118697157819</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.893936440298387e-05</c:v>
+                  <c:v>0.3587818363816707</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.733981454340634e-05</c:v>
+                  <c:v>0.3596430636713336</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.587534902225829e-05</c:v>
+                  <c:v>0.3604949999539344</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.453456478121616e-05</c:v>
+                  <c:v>0.3613371506226614</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.330701994834384e-05</c:v>
+                  <c:v>0.362169074253348</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.21831531372048e-05</c:v>
+                  <c:v>0.3629903789963095</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.115420945459959e-05</c:v>
+                  <c:v>0.363800719187619</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.021217267263899e-05</c:v>
+                  <c:v>0.3645997921668528</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.349703062413615e-06</c:v>
+                  <c:v>0.3653873352890963</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.560080425404842e-06</c:v>
+                  <c:v>0.3661631231197174</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.837151895070164e-06</c:v>
+                  <c:v>0.3669269648010927</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.175284114818755e-06</c:v>
+                  <c:v>0.3676787015811056</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.569319429977464e-06</c:v>
+                  <c:v>0.3684182044938398</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.01453576045011e-06</c:v>
+                  <c:v>0.3691453721834512</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.506609847716425e-06</c:v>
+                  <c:v>0.3698601288627373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,11 +1497,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$E$4</c:f>
+              <c:f>'Решение'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I</c:v>
+                  <c:v>E</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1820,312 +1823,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$E$5:$E$105</c:f>
+              <c:f>'Решение'!$D$5:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.008851845795473831</c:v>
+                  <c:v>0.02849657441976107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.008219514939422922</c:v>
+                  <c:v>0.02790518064468228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.007903793335397744</c:v>
+                  <c:v>0.02780176980487953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.007778739172706725</c:v>
+                  <c:v>0.02793719932452178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.007764065331810217</c:v>
+                  <c:v>0.02816446552729801</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.007808211011480463</c:v>
+                  <c:v>0.02839678951815139</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.007877887127780984</c:v>
+                  <c:v>0.02858336397178888</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.007951570443960155</c:v>
+                  <c:v>0.02869522825642631</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.008015421859766657</c:v>
+                  <c:v>0.02871696681600616</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.008060701768807141</c:v>
+                  <c:v>0.02864176529903089</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.008082115108217131</c:v>
+                  <c:v>0.02846840924965529</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.008076736902344754</c:v>
+                  <c:v>0.02819941160745041</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.008043302335092624</c:v>
+                  <c:v>0.02783980075676559</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.007981727250516421</c:v>
+                  <c:v>0.02739629989768139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.007892775559240181</c:v>
+                  <c:v>0.02687674335396973</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.007777821420110465</c:v>
+                  <c:v>0.02628964166181639</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.007638673617497896</c:v>
+                  <c:v>0.02564384532094379</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.007477441755016874</c:v>
+                  <c:v>0.02494827873501468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.007296431500320652</c:v>
+                  <c:v>0.0242117279804725</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.007098060856285709</c:v>
+                  <c:v>0.0234426726372317</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.006884792370252947</c:v>
+                  <c:v>0.02264915535427934</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.006659077996101093</c:v>
+                  <c:v>0.02183868450398946</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.006423314417354203</c:v>
+                  <c:v>0.02101816602356451</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.006179807291724493</c:v>
+                  <c:v>0.02019386083049871</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.005930743258969726</c:v>
+                  <c:v>0.01937136430437404</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.005678168772901422</c:v>
+                  <c:v>0.01855560439724654</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.005423974943120894</c:v>
+                  <c:v>0.01775085504117657</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.005169887645208987</c:v>
+                  <c:v>0.01696076169098262</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.004917462205700407</c:v>
+                  <c:v>0.01618837607438688</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.004668082005589847</c:v>
+                  <c:v>0.01543619750840644</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.004422960381845243</c:v>
+                  <c:v>0.01470621846253782</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.004183145244610166</c:v>
+                  <c:v>0.01399997238744153</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.003949525869959875</c:v>
+                  <c:v>0.01331858216563278</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.003722841374161165</c:v>
+                  <c:v>0.01266280786436229</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.003503690424453248</c:v>
+                  <c:v>0.01203309277020004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.003292541792113522</c:v>
+                  <c:v>0.0114296069530565</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.003089745404609553</c:v>
+                  <c:v>0.01085228784081397</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.002895543603669351</c:v>
+                  <c:v>0.01030087748326815</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.002710082364016444</c:v>
+                  <c:v>0.009774956346531614</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.002533422272436504</c:v>
+                  <c:v>0.009273973608668993</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.002365549108131427</c:v>
+                  <c:v>0.008797274027269505</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.002206383902565546</c:v>
+                  <c:v>0.008344121523565789</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.002055792390010585</c:v>
+                  <c:v>0.007913719679403896</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.001913593788714721</c:v>
+                  <c:v>0.007505229376615771</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.001779568877158219</c:v>
+                  <c:v>0.007117783826669887</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.001653467350419092</c:v>
+                  <c:v>0.006750501245068742</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.001535014458537844</c:v>
+                  <c:v>0.006402495422623944</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.001423916942269943</c:v>
+                  <c:v>0.006072884436862227</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.001319868292104282</c:v>
+                  <c:v>0.00576079773339115</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.001222553364270594</c:v>
+                  <c:v>0.005465381790700509</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.001131652393018628</c:v>
+                  <c:v>0.005185804563878157</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.001046844442071485</c:v>
+                  <c:v>0.004921258884066874</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.0009678103401567831</c:v>
+                  <c:v>0.004670964971922665</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.0008942351461968014</c:v>
+                  <c:v>0.004434172205386964</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0008258101893567858</c:v>
+                  <c:v>0.004210160265119747</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.0007622347279427102</c:v>
+                  <c:v>0.003998239765187575</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.0007032172693086726</c:v>
+                  <c:v>0.003797752462186042</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.0006484765906531849</c:v>
+                  <c:v>0.003608071122947629</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.0005977424979987863</c:v>
+                  <c:v>0.00342859911933375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.000550756357881457</c:v>
+                  <c:v>0.003258769808283507</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.0005072714334234186</c:v>
+                  <c:v>0.003098045746214292</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.000467053053603293</c:v>
+                  <c:v>0.002945917778947459</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0004298786417321121</c:v>
+                  <c:v>0.002801904041463953</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.0003955376264382507</c:v>
+                  <c:v>0.002665548895875701</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.0003638312558923309</c:v>
+                  <c:v>0.002536421830926018</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.0003345723335873634</c:v>
+                  <c:v>0.002414116342008036</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.000307584891744059</c:v>
+                  <c:v>0.002298248807022518</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0002827038163436585</c:v>
+                  <c:v>0.002188457370300771</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.0002597744359025655</c:v>
+                  <c:v>0.002084400844218312</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.000238652084392071</c:v>
+                  <c:v>0.00198575763595176</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0002192016471668624</c:v>
+                  <c:v>0.001892224705024216</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.0002012970973898509</c:v>
+                  <c:v>0.001803516555789469</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0001848210292185632</c:v>
+                  <c:v>0.001719364267775881</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.0001696641929393696</c:v>
+                  <c:v>0.001639514565805859</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.000155725036289074</c:v>
+                  <c:v>0.001563728930991334</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.0001429092553776351</c:v>
+                  <c:v>0.001491782753049229</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.0001311293579099017</c:v>
+                  <c:v>0.00142346452385756</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.0001203042407874512</c:v>
+                  <c:v>0.001358575071760538</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.000110358783643646</c:v>
+                  <c:v>0.001296926835810881</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.0001012234594161544</c:v>
+                  <c:v>0.001238343178893687</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.283396268241901e-05</c:v>
+                  <c:v>0.001182657738495128</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.513085616653381e-05</c:v>
+                  <c:v>0.001129713813749611</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.805923556309733e-05</c:v>
+                  <c:v>0.0010793637873114</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.156841260789759e-05</c:v>
+                  <c:v>0.001031468580543023</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.561161615049547e-05</c:v>
+                  <c:v>0.0009858971404864501</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.014571084428802e-05</c:v>
+                  <c:v>0.0009425259570785591</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.513093296043662e-05</c:v>
+                  <c:v>0.0009012386090850353</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.05306427486878e-05</c:v>
+                  <c:v>0.0008619253372530171</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.631109270666606e-05</c:v>
+                  <c:v>0.0008244826432191356</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.244121107622391e-05</c:v>
+                  <c:v>0.0007888129127536731</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.889239985787318e-05</c:v>
+                  <c:v>0.0007548240619712078</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.563834661956139e-05</c:v>
+                  <c:v>0.0007224292051916145</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.265484937181686e-05</c:v>
+                  <c:v>0.0006915463431912589</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.991965378559825e-05</c:v>
+                  <c:v>0.0006620980706415387</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.741230204035715e-05</c:v>
+                  <c:v>0.0006340113015896816</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.511399260641299e-05</c:v>
+                  <c:v>0.000607217011894209</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.300745028651775e-05</c:v>
+                  <c:v>0.0005816499975841551</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.107680586541691e-05</c:v>
+                  <c:v>0.0005572486481665626</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.930748474241798e-05</c:v>
+                  <c:v>0.000533954733960646</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.768610394973058e-05</c:v>
+                  <c:v>0.0005117132065890691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2136,11 +2139,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$F$4</c:f>
+              <c:f>'Решение'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R</c:v>
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2462,312 +2465,312 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$F$5:$F$105</c:f>
+              <c:f>'Решение'!$E$5:$E$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0009135019964583333</c:v>
+                  <c:v>0.02336763901454324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.001697912764513656</c:v>
+                  <c:v>0.02595502704029149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.002399271306942237</c:v>
+                  <c:v>0.02804482947125034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.003045837412886907</c:v>
+                  <c:v>0.02979865048184266</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.003654632892102818</c:v>
+                  <c:v>0.03130760502768642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.004235541195223879</c:v>
+                  <c:v>0.0326218953677338</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.004793901406026454</c:v>
+                  <c:v>0.03376820561984322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.005332166480192633</c:v>
+                  <c:v>0.03475998883937387</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.005850975118034766</c:v>
+                  <c:v>0.03560357885194759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.006349852874007363</c:v>
+                  <c:v>0.03630182873866788</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.006827676379431804</c:v>
+                  <c:v>0.03685626906244346</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.007282984325324521</c:v>
+                  <c:v>0.03726836917026936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.007714187813026724</c:v>
+                  <c:v>0.03754024719699304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.008119713408252674</c:v>
+                  <c:v>0.03767503598757762</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.008498100218877395</c:v>
+                  <c:v>0.03767703122612716</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.008848064798998995</c:v>
+                  <c:v>0.03755170047334221</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.009168542962647483</c:v>
+                  <c:v>0.03730560358875664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.009458714617793124</c:v>
+                  <c:v>0.03694625803095209</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.009718015849998381</c:v>
+                  <c:v>0.03648197206831457</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.009946141285647863</c:v>
+                  <c:v>0.03592166225539569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.01014303899043534</c:v>
+                  <c:v>0.03527466705345334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.01030889964856086</c:v>
+                  <c:v>0.03455056529316069</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.01044414142093324</c:v>
+                  <c:v>0.03375900578260783</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.01054939163363055</c:v>
+                  <c:v>0.0329095524727902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.01062546626205485</c:v>
+                  <c:v>0.03201154805376721</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.01067334802796906</c:v>
+                  <c:v>0.03107399758704539</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01069416380186125</c:v>
+                  <c:v>0.0301054727402879</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.01068916189377703</c:v>
+                  <c:v>0.02911403635374418</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.01065968971749831</c:v>
+                  <c:v>0.02810718641542441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0106071722235234</c:v>
+                  <c:v>0.0270918180371842</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.0105330914147574</c:v>
+                  <c:v>0.02607420168896481</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.01043896718483677</c:v>
+                  <c:v>0.02505997574456602</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.01032633965255238</c:v>
+                  <c:v>0.02405415129966267</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.01019675310692797</c:v>
+                  <c:v>0.02306112722122385</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.01005174162612719</c:v>
+                  <c:v>0.02208471345754284</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.009892816389364836</c:v>
+                  <c:v>0.0211281607615107</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.009721454664121117</c:v>
+                  <c:v>0.02019419514017035</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.009539090420818243</c:v>
+                  <c:v>0.01928505552674455</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.009347106503232975</c:v>
+                  <c:v>0.01840253336534376</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.009146828264730782</c:v>
+                  <c:v>0.01754801299385665</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.008939518567313441</c:v>
+                  <c:v>0.01672251189974206</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.008726374031847979</c:v>
+                  <c:v>0.01592672010121151</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.008508522423066892</c:v>
+                  <c:v>0.01516103806899486</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.008287021051392821</c:v>
+                  <c:v>0.01442561274936582</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.008062856074773373</c:v>
+                  <c:v>0.0137203713764062</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.007836942586984929</c:v>
+                  <c:v>0.01304505287057095</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.007610125383799119</c:v>
+                  <c:v>0.01239923671213678</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.007383180304576582</c:v>
+                  <c:v>0.01178236925321364</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.007156816053888349</c:v>
+                  <c:v>0.01119378749212318</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.006931676415347994</c:v>
+                  <c:v>0.01063274038072435</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.006708342777700575</c:v>
+                  <c:v>0.01009840777038028</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.006487336901137966</c:v>
+                  <c:v>0.009589917127379315</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.006269123859618325</c:v>
+                  <c:v>0.009106358165334316</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.00605411510252256</c:v>
+                  <c:v>0.008646795551859932</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.005842671586179291</c:v>
+                  <c:v>0.008210279850996293</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.005635106932557676</c:v>
+                  <c:v>0.007795856862588111</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.005431690578715321</c:v>
+                  <c:v>0.007402575516163271</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.005232650886367569</c:v>
+                  <c:v>0.007029494470659209</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.005038178186203274</c:v>
+                  <c:v>0.006675687563352141</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00484842773631239</c:v>
+                  <c:v>0.006340248242159461</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.004663522578324912</c:v>
+                  <c:v>0.006022293105600208</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.004483556278609227</c:v>
+                  <c:v>0.005720964664502707</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.004308595545166923</c:v>
+                  <c:v>0.005435433429346099</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.004138682713720638</c:v>
+                  <c:v>0.005164899417143071</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.003973838098954069</c:v>
+                  <c:v>0.004908593162183197</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.003814062208962312</c:v>
+                  <c:v>0.004665776305877186</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.003659337822740086</c:v>
+                  <c:v>0.004435741832448639</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.003509631932008143</c:v>
+                  <c:v>0.004217814009355151</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.003364897549886235</c:v>
+                  <c:v>0.004011348084103011</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.003225075389894801</c:v>
+                  <c:v>0.003815729782547694</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.003090095419535332</c:v>
+                  <c:v>0.003630374647830056</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.002959878293287737</c:v>
+                  <c:v>0.003454727253758867</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.002834336670296088</c:v>
+                  <c:v>0.003288260321680807</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.002713376422313957</c:v>
+                  <c:v>0.003130473765641022</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.002596897737667156</c:v>
+                  <c:v>0.002980893686890496</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.002484796127082819</c:v>
+                  <c:v>0.00283907133549959</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.002376963337245499</c:v>
+                  <c:v>0.002704582053949203</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.002273288177887114</c:v>
+                  <c:v>0.00257702421505262</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.002173657268110765</c:v>
+                  <c:v>0.002456018164374408</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.002077955707499257</c:v>
+                  <c:v>0.002341205175422249</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.001986067677376968</c:v>
+                  <c:v>0.002232246424260417</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.001897876977386589</c:v>
+                  <c:v>0.002128821988799249</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.001813267502317054</c:v>
+                  <c:v>0.002030629876825776</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.001732123663881416</c:v>
+                  <c:v>0.001937385085831497</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.001654330761898558</c:v>
+                  <c:v>0.001848818696841341</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.001579775309084372</c:v>
+                  <c:v>0.001764677003732963</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.001508345313409841</c:v>
+                  <c:v>0.001684720678939426</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.001439930521738003</c:v>
+                  <c:v>0.001608723975934967</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.00137442262821128</c:v>
+                  <c:v>0.001536473968498736</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.00131171545062683</c:v>
+                  <c:v>0.001467769826422483</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.001251705077811738</c:v>
+                  <c:v>0.001402422127064269</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.001194289990792985</c:v>
+                  <c:v>0.001340252201941645</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.001139371160349972</c:v>
+                  <c:v>0.001281091517396072</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.001086852123340279</c:v>
+                  <c:v>0.001224781088238261</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.001036639040002681</c:v>
+                  <c:v>0.001171170923195348</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0009886407342652214</c:v>
+                  <c:v>0.001120119500919825</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0009427687189203464</c:v>
+                  <c:v>0.001071493275282341</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0008989372073736286</c:v>
+                  <c:v>0.001025166208651632</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.0008570631135270969</c:v>
+                  <c:v>0.000981019331861719</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0008170660412224772</c:v>
+                  <c:v>0.0009389403295758919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2778,9 +2781,12 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Решение'!$G$4</c:f>
+              <c:f>'Решение'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3101,10 +3107,313 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Решение'!$G$5:$G$105</c:f>
+              <c:f>'Решение'!$F$5:$F$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01292248409964844</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01619358019687421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01971068552701888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02340617023841999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02723255993529448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0311539225758021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03514089107106427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03916782673479054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04321124836670547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04724901080145549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05125992585590083</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05522364112919088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.05912066445606459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06293246496844682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.06664160781782563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.07023189568668525</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0736885003586448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.07699807420089688</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.08014883582214355</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.08313062721001752</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.08593494179476266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.08855492440876085</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.09098534518246332</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09322255014276601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.09526439173202257</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.09711014269815607</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.09876039686177021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1002169601816797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1014827353485552</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1025616028665687</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1034583012607982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1041783086960246</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.104727727929212</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1051131761586765</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.1053416809896055</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1054205834169155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.1053574484383662</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1051599836568345</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1048359660121596</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.1043931765997989</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1038393433842664</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.103182091497633</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1024289007243438</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1015870697099933</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.1006636863901252</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0996656041122268</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.09859942291668009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.09747147544752156</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.09628781697877878</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.09505421906449156</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.09377616634823628</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.09245885609928711</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.09110720007600771</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.08972582835147429</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.08831909477073453</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.08689108374276712</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.08544561810256893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.08398626780946383</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.08251635927643002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.08103898515182062</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.07955701439923105</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.07807310254343539</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0765897019703182</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.07510907218664709</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.07363328996147345</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.07216425928503956</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0707037210934454</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.06925326271812957</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.06781432702858563</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.06638822124480762</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.06497612540286722</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.06357910046289776</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.06219809605371179</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.06083395785242083</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.05948743460085466</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.05815918476338629</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.05684978283303729</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.05555972529454171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.05428943625444905</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.05303927274940768</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.05180952974453974</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.05060044483434265</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.04941220265887099</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.04824493904809875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.04709874490736771</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.0459736698567171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.04486972563668587</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.04378688929290107</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.04272510615142995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.04168429259649312</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.04066433866172398</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.03966511044572423</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.03868645236221619</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.03772818923463532</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.03679012824454755</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.03587206074281945</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.03497376393201925</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.03409500242808548</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.03323552970887064</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.03239508945675094</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3554,7 +3863,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3567,7 +3876,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3593,23 +3902,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -3617,18 +3926,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3646,38 +3955,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3685,19 +3994,19 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
         <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3705,19 +4014,19 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.04852954999999999</v>
+        <v>0.07682381510416667</v>
       </c>
       <c r="C6">
-        <v>0.9393144102479263</v>
+        <v>0.8583894873618806</v>
       </c>
       <c r="D6">
-        <v>0.002390691960141525</v>
+        <v>0.02849657441976107</v>
       </c>
       <c r="E6">
-        <v>0.008851845795473831</v>
+        <v>0.02336763901454324</v>
       </c>
       <c r="F6">
-        <v>0.0009135019964583333</v>
+        <v>0.01292248409964844</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3725,19 +4034,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.094232959332157</v>
+        <v>0.1023394173778924</v>
       </c>
       <c r="C7">
-        <v>0.8919271872640839</v>
+        <v>0.8276067947402597</v>
       </c>
       <c r="D7">
-        <v>0.003922425699822409</v>
+        <v>0.02790518064468228</v>
       </c>
       <c r="E7">
-        <v>0.008219514939422922</v>
+        <v>0.02595502704029149</v>
       </c>
       <c r="F7">
-        <v>0.001697912764513656</v>
+        <v>0.01619358019687421</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3745,19 +4054,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.1372748095982875</v>
+        <v>0.1266106091104147</v>
       </c>
       <c r="C8">
-        <v>0.8475149279469585</v>
+        <v>0.7978321060864366</v>
       </c>
       <c r="D8">
-        <v>0.004907197812413925</v>
+        <v>0.02780176980487953</v>
       </c>
       <c r="E8">
-        <v>0.007903793335397744</v>
+        <v>0.02804482947125034</v>
       </c>
       <c r="F8">
-        <v>0.002399271306942237</v>
+        <v>0.01971068552701888</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3765,19 +4074,19 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.1778100979149188</v>
+        <v>0.1496980809167716</v>
       </c>
       <c r="C9">
-        <v>0.805828523219091</v>
+        <v>0.769159899038444</v>
       </c>
       <c r="D9">
-        <v>0.005536802280396391</v>
+        <v>0.02793719932452178</v>
       </c>
       <c r="E9">
-        <v>0.007778739172706725</v>
+        <v>0.02979865048184266</v>
       </c>
       <c r="F9">
-        <v>0.003045837412886907</v>
+        <v>0.02340617023841999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3785,19 +4094,19 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.2159847950701985</v>
+        <v>0.1716595634959351</v>
       </c>
       <c r="C10">
-        <v>0.7666662153874412</v>
+        <v>0.741635806013786</v>
       </c>
       <c r="D10">
-        <v>0.005930291318447181</v>
+        <v>0.02816446552729801</v>
       </c>
       <c r="E10">
-        <v>0.007764065331810217</v>
+        <v>0.03130760502768642</v>
       </c>
       <c r="F10">
-        <v>0.003654632892102818</v>
+        <v>0.02723255993529448</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3805,19 +4114,19 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.2519363711762798</v>
+        <v>0.1925499719876135</v>
       </c>
       <c r="C11">
-        <v>0.7298574550543715</v>
+        <v>0.7152774205506993</v>
       </c>
       <c r="D11">
-        <v>0.006162421562644282</v>
+        <v>0.02839678951815139</v>
       </c>
       <c r="E11">
-        <v>0.007808211011480463</v>
+        <v>0.0326218953677338</v>
       </c>
       <c r="F11">
-        <v>0.004235541195223879</v>
+        <v>0.0311539225758021</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3825,19 +4134,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.2857942907100984</v>
+        <v>0.2124215432886895</v>
       </c>
       <c r="C12">
-        <v>0.6952530925021883</v>
+        <v>0.6900859960486143</v>
       </c>
       <c r="D12">
-        <v>0.006280828253905846</v>
+        <v>0.02858336397178888</v>
       </c>
       <c r="E12">
-        <v>0.007877887127780984</v>
+        <v>0.03376820561984322</v>
       </c>
       <c r="F12">
-        <v>0.004793901406026454</v>
+        <v>0.03514089107106427</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3845,19 +4154,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.3176804787252221</v>
+        <v>0.2313239666726576</v>
       </c>
       <c r="C13">
-        <v>0.6627193261910821</v>
+        <v>0.6660529894967518</v>
       </c>
       <c r="D13">
-        <v>0.006316458159542947</v>
+        <v>0.02869522825642631</v>
       </c>
       <c r="E13">
-        <v>0.007951570443960155</v>
+        <v>0.03475998883937387</v>
       </c>
       <c r="F13">
-        <v>0.005332166480192633</v>
+        <v>0.03916782673479054</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3865,19 +4174,19 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.3477097599136386</v>
+        <v>0.2493045080386762</v>
       </c>
       <c r="C14">
-        <v>0.6321339039500127</v>
+        <v>0.6431636979266647</v>
       </c>
       <c r="D14">
-        <v>0.006289939158547302</v>
+        <v>0.02871696681600616</v>
       </c>
       <c r="E14">
-        <v>0.008015421859766657</v>
+        <v>0.03560357885194759</v>
       </c>
       <c r="F14">
-        <v>0.005850975118034766</v>
+        <v>0.04321124836670547</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3885,19 +4194,19 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.3759902720985783</v>
+        <v>0.2664081281009222</v>
       </c>
       <c r="C15">
-        <v>0.6033836897837678</v>
+        <v>0.6213992670599237</v>
       </c>
       <c r="D15">
-        <v>0.006215483474839467</v>
+        <v>0.02864176529903089</v>
       </c>
       <c r="E15">
-        <v>0.008060701768807141</v>
+        <v>0.03630182873866788</v>
       </c>
       <c r="F15">
-        <v>0.006349852874007363</v>
+        <v>0.04724901080145549</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3905,19 +4214,19 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.4026238556473924</v>
+        <v>0.2826775948137835</v>
       </c>
       <c r="C16">
-        <v>0.5763630681324518</v>
+        <v>0.6007378010182171</v>
       </c>
       <c r="D16">
-        <v>0.006103284732506965</v>
+        <v>0.02846840924965529</v>
       </c>
       <c r="E16">
-        <v>0.008082115108217131</v>
+        <v>0.03685626906244346</v>
       </c>
       <c r="F16">
-        <v>0.006827676379431804</v>
+        <v>0.05125992585590083</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3925,19 +4234,19 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.4277064202067929</v>
+        <v>0.2981535903140099</v>
       </c>
       <c r="C17">
-        <v>0.5509728680232946</v>
+        <v>0.5811549877790796</v>
       </c>
       <c r="D17">
-        <v>0.005960990542243299</v>
+        <v>0.02819941160745041</v>
       </c>
       <c r="E17">
-        <v>0.008076736902344754</v>
+        <v>0.03726836917026936</v>
       </c>
       <c r="F17">
-        <v>0.007282984325324521</v>
+        <v>0.05522364112919088</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3945,19 +4254,19 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.451328290081097</v>
+        <v>0.3128748126472345</v>
       </c>
       <c r="C18">
-        <v>0.5271196142074818</v>
+        <v>0.5626244749429424</v>
       </c>
       <c r="D18">
-        <v>0.005794605563301952</v>
+        <v>0.02783980075676559</v>
       </c>
       <c r="E18">
-        <v>0.008043302335092624</v>
+        <v>0.03754024719699304</v>
       </c>
       <c r="F18">
-        <v>0.007714187813026724</v>
+        <v>0.05912066445606459</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3965,19 +4274,19 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.4735745294972109</v>
+        <v>0.3268780725332341</v>
       </c>
       <c r="C19">
-        <v>0.5047149867883879</v>
+        <v>0.5451181266130601</v>
       </c>
       <c r="D19">
-        <v>0.005609043055632168</v>
+        <v>0.02739629989768139</v>
       </c>
       <c r="E19">
-        <v>0.007981727250516421</v>
+        <v>0.03767503598757762</v>
       </c>
       <c r="F19">
-        <v>0.008119713408252674</v>
+        <v>0.06293246496844682</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3985,19 +4294,19 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.4945252489276573</v>
+        <v>0.3401983854118926</v>
       </c>
       <c r="C20">
-        <v>0.4836754156679288</v>
+        <v>0.528606232190185</v>
       </c>
       <c r="D20">
-        <v>0.005408459626296374</v>
+        <v>0.02687674335396973</v>
       </c>
       <c r="E20">
-        <v>0.007892775559240181</v>
+        <v>0.03767703122612716</v>
       </c>
       <c r="F20">
-        <v>0.008498100218877395</v>
+        <v>0.06664160781782563</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4005,19 +4314,19 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.5142558935747407</v>
+        <v>0.3528690590000296</v>
       </c>
       <c r="C21">
-        <v>0.4639217633980678</v>
+        <v>0.5130577031781266</v>
       </c>
       <c r="D21">
-        <v>0.005196456808082124</v>
+        <v>0.02628964166181639</v>
       </c>
       <c r="E21">
-        <v>0.007777821420110465</v>
+        <v>0.03755170047334221</v>
       </c>
       <c r="F21">
-        <v>0.008848064798998995</v>
+        <v>0.07023189568668525</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4025,19 +4334,19 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.5328375150547046</v>
+        <v>0.3649217765780332</v>
       </c>
       <c r="C22">
-        <v>0.445379066788877</v>
+        <v>0.4984402741536217</v>
       </c>
       <c r="D22">
-        <v>0.004976201576273078</v>
+        <v>0.02564384532094379</v>
       </c>
       <c r="E22">
-        <v>0.007638673617497896</v>
+        <v>0.03730560358875664</v>
       </c>
       <c r="F22">
-        <v>0.009168542962647483</v>
+        <v>0.0736885003586448</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4045,19 +4354,19 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.5503370272602369</v>
+        <v>0.3763866762145546</v>
       </c>
       <c r="C23">
-        <v>0.427976318066714</v>
+        <v>0.4847207128185818</v>
       </c>
       <c r="D23">
-        <v>0.004750498300239051</v>
+        <v>0.02494827873501468</v>
       </c>
       <c r="E23">
-        <v>0.007477441755016874</v>
+        <v>0.03694625803095209</v>
       </c>
       <c r="F23">
-        <v>0.009458714617793124</v>
+        <v>0.07699807420089688</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4065,19 +4374,19 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.5668174473227044</v>
+        <v>0.3872924261273709</v>
       </c>
       <c r="C24">
-        <v>0.4116462729769109</v>
+        <v>0.4718650380016985</v>
       </c>
       <c r="D24">
-        <v>0.004521832350065565</v>
+        <v>0.0242117279804725</v>
       </c>
       <c r="E24">
-        <v>0.007296431500320652</v>
+        <v>0.03648197206831457</v>
       </c>
       <c r="F24">
-        <v>0.009718015849998381</v>
+        <v>0.08014883582214355</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4085,19 +4394,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.582338122541841</v>
+        <v>0.3976662963688532</v>
       </c>
       <c r="C25">
-        <v>0.396325277468162</v>
+        <v>0.459838741528502</v>
       </c>
       <c r="D25">
-        <v>0.004292397848063357</v>
+        <v>0.0234426726372317</v>
       </c>
       <c r="E25">
-        <v>0.007098060856285709</v>
+        <v>0.03592166225539569</v>
       </c>
       <c r="F25">
-        <v>0.009946141285647863</v>
+        <v>0.08313062721001752</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4105,19 +4414,19 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.5969549441000805</v>
+        <v>0.4075342270152953</v>
       </c>
       <c r="C26">
-        <v>0.3819531073727653</v>
+        <v>0.4486070087822094</v>
       </c>
       <c r="D26">
-        <v>0.004064117166465778</v>
+        <v>0.02264915535427934</v>
       </c>
       <c r="E26">
-        <v>0.006884792370252947</v>
+        <v>0.03527466705345334</v>
       </c>
       <c r="F26">
-        <v>0.01014303899043534</v>
+        <v>0.08593494179476266</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4125,19 +4434,19 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.6107205483311381</v>
+        <v>0.4169208930306085</v>
       </c>
       <c r="C27">
-        <v>0.3684728173484012</v>
+        <v>0.4381349327634806</v>
       </c>
       <c r="D27">
-        <v>0.00383865667579871</v>
+        <v>0.02183868450398946</v>
       </c>
       <c r="E27">
-        <v>0.006659077996101093</v>
+        <v>0.03455056529316069</v>
       </c>
       <c r="F27">
-        <v>0.01030889964856086</v>
+        <v>0.08855492440876085</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4145,19 +4454,19 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.6236845062676221</v>
+        <v>0.4258497659665774</v>
       </c>
       <c r="C28">
-        <v>0.3558305966032868</v>
+        <v>0.4283877170447871</v>
       </c>
       <c r="D28">
-        <v>0.003617441290803658</v>
+        <v>0.02101816602356451</v>
       </c>
       <c r="E28">
-        <v>0.006423314417354203</v>
+        <v>0.03375900578260783</v>
       </c>
       <c r="F28">
-        <v>0.01044414142093324</v>
+        <v>0.09098534518246332</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4165,19 +4474,19 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.6358935021502542</v>
+        <v>0.4343431726539591</v>
       </c>
       <c r="C29">
-        <v>0.3439756297911297</v>
+        <v>0.4193308638999862</v>
       </c>
       <c r="D29">
-        <v>0.003401669133261045</v>
+        <v>0.02019386083049871</v>
       </c>
       <c r="E29">
-        <v>0.006179807291724493</v>
+        <v>0.0329095524727902</v>
       </c>
       <c r="F29">
-        <v>0.01054939163363055</v>
+        <v>0.09322255014276601</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4185,19 +4494,19 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.6473915015415231</v>
+        <v>0.4424223510311828</v>
       </c>
       <c r="C30">
-        <v>0.3328599620630171</v>
+        <v>0.4109303448786535</v>
       </c>
       <c r="D30">
-        <v>0.003192326874435098</v>
+        <v>0.01937136430437404</v>
       </c>
       <c r="E30">
-        <v>0.005930743258969726</v>
+        <v>0.03201154805376721</v>
       </c>
       <c r="F30">
-        <v>0.01062546626205485</v>
+        <v>0.09526439173202257</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4205,19 +4514,19 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.6582199096491619</v>
+        <v>0.4501075032502534</v>
       </c>
       <c r="C31">
-        <v>0.3224383676817837</v>
+        <v>0.4031527520672987</v>
       </c>
       <c r="D31">
-        <v>0.002990205868183848</v>
+        <v>0.01855560439724654</v>
       </c>
       <c r="E31">
-        <v>0.005678168772901422</v>
+        <v>0.03107399758704539</v>
       </c>
       <c r="F31">
-        <v>0.01067334802796906</v>
+        <v>0.09711014269815607</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4225,19 +4534,19 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.6684177204295845</v>
+        <v>0.4574178461926482</v>
       </c>
       <c r="C32">
-        <v>0.3126682218938752</v>
+        <v>0.3959654291641173</v>
       </c>
       <c r="D32">
-        <v>0.002795918931558168</v>
+        <v>0.01775085504117657</v>
       </c>
       <c r="E32">
-        <v>0.005423974943120894</v>
+        <v>0.0301054727402879</v>
       </c>
       <c r="F32">
-        <v>0.01069416380186125</v>
+        <v>0.09876039686177021</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4245,19 +4554,19 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.6780216570082163</v>
+        <v>0.464371659521525</v>
       </c>
       <c r="C33">
-        <v>0.3035093759502438</v>
+        <v>0.3893365822520687</v>
       </c>
       <c r="D33">
-        <v>0.002609917502553884</v>
+        <v>0.01696076169098262</v>
       </c>
       <c r="E33">
-        <v>0.005169887645208987</v>
+        <v>0.02911403635374418</v>
       </c>
       <c r="F33">
-        <v>0.01068916189377703</v>
+        <v>0.1002169601816797</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4265,19 +4574,19 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.6870663039223806</v>
+        <v>0.470986331390397</v>
       </c>
       <c r="C34">
-        <v>0.2949240352964033</v>
+        <v>0.3832353707712367</v>
       </c>
       <c r="D34">
-        <v>0.002432508858017447</v>
+        <v>0.01618837607438688</v>
       </c>
       <c r="E34">
-        <v>0.004917462205700407</v>
+        <v>0.02810718641542441</v>
       </c>
       <c r="F34">
-        <v>0.01065968971749831</v>
+        <v>0.1014827353485552</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4285,19 +4594,19 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.6955842316629609</v>
+        <v>0.4772784019225683</v>
       </c>
       <c r="C35">
-        <v>0.2868766410304118</v>
+        <v>0.3776319796652725</v>
       </c>
       <c r="D35">
-        <v>0.002263873077513976</v>
+        <v>0.01543619750840644</v>
       </c>
       <c r="E35">
-        <v>0.004668082005589847</v>
+        <v>0.0270918180371842</v>
       </c>
       <c r="F35">
-        <v>0.0106071722235234</v>
+        <v>0.1025616028665687</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4305,19 +4614,19 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.7036061139633218</v>
+        <v>0.4832636045700535</v>
       </c>
       <c r="C36">
-        <v>0.2793337547695647</v>
+        <v>0.3724976740176458</v>
       </c>
       <c r="D36">
-        <v>0.002104079470510745</v>
+        <v>0.01470621846253782</v>
       </c>
       <c r="E36">
-        <v>0.004422960381845243</v>
+        <v>0.02607420168896481</v>
       </c>
       <c r="F36">
-        <v>0.0105330914147574</v>
+        <v>0.1034583012607982</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4325,19 +4634,19 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.7111608382578554</v>
+        <v>0.4889569054553985</v>
       </c>
       <c r="C37">
-        <v>0.2722639470820064</v>
+        <v>0.3678048377165694</v>
       </c>
       <c r="D37">
-        <v>0.001953102230691305</v>
+        <v>0.01399997238744153</v>
       </c>
       <c r="E37">
-        <v>0.004183145244610166</v>
+        <v>0.02505997574456602</v>
       </c>
       <c r="F37">
-        <v>0.01043896718483677</v>
+        <v>0.1041783086960246</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4345,19 +4654,19 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.7182756097079236</v>
+        <v>0.4943725407947783</v>
       </c>
       <c r="C38">
-        <v>0.2656376896360702</v>
+        <v>0.3635269978107144</v>
       </c>
       <c r="D38">
-        <v>0.001810835133494008</v>
+        <v>0.01331858216563278</v>
       </c>
       <c r="E38">
-        <v>0.003949525869959875</v>
+        <v>0.02405415129966267</v>
       </c>
       <c r="F38">
-        <v>0.01032633965255238</v>
+        <v>0.104727727929212</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4365,19 +4674,19 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.7249760491698022</v>
+        <v>0.4995240524959488</v>
       </c>
       <c r="C39">
-        <v>0.2594272512038941</v>
+        <v>0.3596388362597887</v>
       </c>
       <c r="D39">
-        <v>0.001677105145214528</v>
+        <v>0.01266280786436229</v>
       </c>
       <c r="E39">
-        <v>0.003722841374161165</v>
+        <v>0.02306112722122385</v>
       </c>
       <c r="F39">
-        <v>0.01019675310692797</v>
+        <v>0.1051131761586765</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4385,19 +4694,19 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.7312862854574161</v>
+        <v>0.5044243220200664</v>
       </c>
       <c r="C40">
-        <v>0.2536065976313719</v>
+        <v>0.3561161907625854</v>
       </c>
       <c r="D40">
-        <v>0.001551684860631473</v>
+        <v>0.01203309277020004</v>
       </c>
       <c r="E40">
-        <v>0.003503690424453248</v>
+        <v>0.02208471345754284</v>
       </c>
       <c r="F40">
-        <v>0.01005174162612719</v>
+        <v>0.1053416809896055</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4405,19 +4714,19 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.7372290422321122</v>
+        <v>0.5090856025920466</v>
       </c>
       <c r="C41">
-        <v>0.24815129585733</v>
+        <v>0.3529360462764709</v>
       </c>
       <c r="D41">
-        <v>0.001434303729079412</v>
+        <v>0.0114296069530565</v>
       </c>
       <c r="E41">
-        <v>0.003292541792113522</v>
+        <v>0.0211281607615107</v>
       </c>
       <c r="F41">
-        <v>0.009892816389364836</v>
+        <v>0.1054205834169155</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4425,19 +4734,19 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.7428257198323657</v>
+        <v>0.513519549840006</v>
       </c>
       <c r="C42">
-        <v>0.2430384220336496</v>
+        <v>0.3500765187406437</v>
       </c>
       <c r="D42">
-        <v>0.001324658065253981</v>
+        <v>0.01085228784081397</v>
       </c>
       <c r="E42">
-        <v>0.003089745404609553</v>
+        <v>0.02019419514017035</v>
       </c>
       <c r="F42">
-        <v>0.009721454664121117</v>
+        <v>0.1053574484383662</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4445,19 +4754,19 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.7480964723380967</v>
+        <v>0.5177372509404001</v>
       </c>
       <c r="C43">
-        <v>0.2382464737668493</v>
+        <v>0.3475168323927528</v>
       </c>
       <c r="D43">
-        <v>0.001222419870566386</v>
+        <v>0.01030087748326815</v>
       </c>
       <c r="E43">
-        <v>0.002895543603669351</v>
+        <v>0.01928505552674455</v>
       </c>
       <c r="F43">
-        <v>0.009539090420818243</v>
+        <v>0.1051599836568345</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4465,19 +4774,19 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.7530602801471104</v>
+        <v>0.5217492523417367</v>
       </c>
       <c r="C44">
-        <v>0.2337552864718175</v>
+        <v>0.3452372919342284</v>
       </c>
       <c r="D44">
-        <v>0.001127244513822673</v>
+        <v>0.009774956346531614</v>
       </c>
       <c r="E44">
-        <v>0.002710082364016444</v>
+        <v>0.01840253336534376</v>
       </c>
       <c r="F44">
-        <v>0.009347106503232975</v>
+        <v>0.1048359660121596</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4485,19 +4794,19 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.7577350183250146</v>
+        <v>0.5255655861361878</v>
       </c>
       <c r="C45">
-        <v>0.2295459538008859</v>
+        <v>0.3432192506614877</v>
       </c>
       <c r="D45">
-        <v>0.001038777336932219</v>
+        <v>0.009273973608668993</v>
       </c>
       <c r="E45">
-        <v>0.002533422272436504</v>
+        <v>0.01754801299385665</v>
       </c>
       <c r="F45">
-        <v>0.009146828264730782</v>
+        <v>0.1043931765997989</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4505,19 +4814,19 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.7621375209747488</v>
+        <v>0.5291957951450421</v>
       </c>
       <c r="C46">
-        <v>0.2256007520868485</v>
+        <v>0.3414450755436799</v>
       </c>
       <c r="D46">
-        <v>0.0009566592629577131</v>
+        <v>0.008797274027269505</v>
       </c>
       <c r="E46">
-        <v>0.002365549108131427</v>
+        <v>0.01672251189974206</v>
       </c>
       <c r="F46">
-        <v>0.008939518567313441</v>
+        <v>0.1038393433842664</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4525,19 +4834,19 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.7662836418575247</v>
+        <v>0.5326489567807274</v>
       </c>
       <c r="C47">
-        <v>0.2219030687171801</v>
+        <v>0.3398981100968623</v>
       </c>
       <c r="D47">
-        <v>0.0008805314908816332</v>
+        <v>0.008344121523565789</v>
       </c>
       <c r="E47">
-        <v>0.002206383902565546</v>
+        <v>0.01592672010121151</v>
       </c>
       <c r="F47">
-        <v>0.008726374031847979</v>
+        <v>0.103182091497633</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4545,19 +4854,19 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.7701883114834766</v>
+        <v>0.5359337057450665</v>
       </c>
       <c r="C48">
-        <v>0.2184373343386833</v>
+        <v>0.338562635782191</v>
       </c>
       <c r="D48">
-        <v>0.0008100393647626635</v>
+        <v>0.007913719679403896</v>
       </c>
       <c r="E48">
-        <v>0.002055792390010585</v>
+        <v>0.01516103806899486</v>
       </c>
       <c r="F48">
-        <v>0.008508522423066892</v>
+        <v>0.1024289007243438</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4565,19 +4874,19 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.773865590877613</v>
+        <v>0.5390582556205273</v>
       </c>
       <c r="C49">
-        <v>0.2151889587770469</v>
+        <v>0.3374238325434977</v>
       </c>
       <c r="D49">
-        <v>0.0007448355052325679</v>
+        <v>0.007505229376615771</v>
       </c>
       <c r="E49">
-        <v>0.001913593788714721</v>
+        <v>0.01442561274936582</v>
       </c>
       <c r="F49">
-        <v>0.008287021051392821</v>
+        <v>0.1015870697099933</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4585,19 +4894,19 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.7773287222146834</v>
+        <v>0.5420304194084553</v>
       </c>
       <c r="C50">
-        <v>0.2121442705441667</v>
+        <v>0.3364677389983434</v>
       </c>
       <c r="D50">
-        <v>0.0006845822892182789</v>
+        <v>0.007117783826669887</v>
       </c>
       <c r="E50">
-        <v>0.001779568877158219</v>
+        <v>0.0137203713764062</v>
       </c>
       <c r="F50">
-        <v>0.008062856074773373</v>
+        <v>0.1006636863901252</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4605,19 +4914,19 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.780590176505299</v>
+        <v>0.5448576290656438</v>
       </c>
       <c r="C51">
-        <v>0.2092904597973312</v>
+        <v>0.3356812127064897</v>
       </c>
       <c r="D51">
-        <v>0.000628953759965615</v>
+        <v>0.006750501245068742</v>
       </c>
       <c r="E51">
-        <v>0.001653467350419092</v>
+        <v>0.01304505287057095</v>
       </c>
       <c r="F51">
-        <v>0.007836942586984929</v>
+        <v>0.0996656041122268</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4625,19 +4934,19 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.7836616985050318</v>
+        <v>0.5475469540880957</v>
       </c>
       <c r="C52">
-        <v>0.2066155246082251</v>
+        <v>0.3350518908604634</v>
       </c>
       <c r="D52">
-        <v>0.0005776370444060569</v>
+        <v>0.006402495422623944</v>
       </c>
       <c r="E52">
-        <v>0.001535014458537844</v>
+        <v>0.01239923671213678</v>
       </c>
       <c r="F52">
-        <v>0.007610125383799119</v>
+        <v>0.09859942291668009</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4645,19 +4954,19 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.7865543490082099</v>
+        <v>0.5501051191884435</v>
       </c>
       <c r="C53">
-        <v>0.2041082203958648</v>
+        <v>0.334568151673959</v>
       </c>
       <c r="D53">
-        <v>0.0005303333490786395</v>
+        <v>0.006072884436862227</v>
       </c>
       <c r="E53">
-        <v>0.001423916942269943</v>
+        <v>0.01178236925321364</v>
       </c>
       <c r="F53">
-        <v>0.007383180304576582</v>
+        <v>0.09747147544752156</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4665,19 +4974,19 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.7892785446787162</v>
+        <v>0.5525385211112319</v>
       </c>
       <c r="C54">
-        <v>0.2017580123757428</v>
+        <v>0.334219076684475</v>
       </c>
       <c r="D54">
-        <v>0.0004867585995481696</v>
+        <v>0.00576079773339115</v>
       </c>
       <c r="E54">
-        <v>0.001319868292104282</v>
+        <v>0.01119378749212318</v>
       </c>
       <c r="F54">
-        <v>0.007156816053888349</v>
+        <v>0.09628781697877878</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4685,19 +4994,19 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.7918440955612206</v>
+        <v>0.5548532446281094</v>
       </c>
       <c r="C55">
-        <v>0.1995550308773315</v>
+        <v>0.3339944141359742</v>
       </c>
       <c r="D55">
-        <v>0.0004466437818291286</v>
+        <v>0.005465381790700509</v>
       </c>
       <c r="E55">
-        <v>0.001222553364270594</v>
+        <v>0.01063274038072435</v>
       </c>
       <c r="F55">
-        <v>0.006931676415347994</v>
+        <v>0.09505421906449156</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4705,19 +5014,19 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.794260240407929</v>
+        <v>0.5570550777529251</v>
       </c>
       <c r="C56">
-        <v>0.1974900293834036</v>
+        <v>0.3338845435645802</v>
       </c>
       <c r="D56">
-        <v>0.0004097350379480471</v>
+        <v>0.005185804563878157</v>
       </c>
       <c r="E56">
-        <v>0.001131652393018628</v>
+        <v>0.01009840777038028</v>
       </c>
       <c r="F56">
-        <v>0.006708342777700575</v>
+        <v>0.09377616634823628</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4725,19 +5034,19 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.7965356799480626</v>
+        <v>0.5591495262147766</v>
       </c>
       <c r="C57">
-        <v>0.195554345147111</v>
+        <v>0.33388044167449</v>
       </c>
       <c r="D57">
-        <v>0.0003757935616167369</v>
+        <v>0.004921258884066874</v>
       </c>
       <c r="E57">
-        <v>0.001046844442071485</v>
+        <v>0.009589917127379315</v>
       </c>
       <c r="F57">
-        <v>0.006487336901137966</v>
+        <v>0.09245885609928711</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4745,19 +5054,19 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.7986786082198745</v>
+        <v>0.5611418272251992</v>
       </c>
       <c r="C58">
-        <v>0.1937398622461917</v>
+        <v>0.333973649561536</v>
       </c>
       <c r="D58">
-        <v>0.000344595334158617</v>
+        <v>0.004670964971922665</v>
       </c>
       <c r="E58">
-        <v>0.0009678103401567831</v>
+        <v>0.009106358165334316</v>
       </c>
       <c r="F58">
-        <v>0.006269123859618325</v>
+        <v>0.09110720007600771</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4765,19 +5074,19 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.8006967420780303</v>
+        <v>0.5630369625739211</v>
       </c>
       <c r="C59">
-        <v>0.1920389769378442</v>
+        <v>0.3341562413173577</v>
       </c>
       <c r="D59">
-        <v>0.0003159307354060474</v>
+        <v>0.004434172205386964</v>
       </c>
       <c r="E59">
-        <v>0.0008942351461968014</v>
+        <v>0.008646795551859932</v>
       </c>
       <c r="F59">
-        <v>0.00605411510252256</v>
+        <v>0.08972582835147429</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4785,19 +5094,19 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.8025973489826148</v>
+        <v>0.5648396710859311</v>
       </c>
       <c r="C60">
-        <v>0.1904445651825365</v>
+        <v>0.3344207940272182</v>
       </c>
       <c r="D60">
-        <v>0.0002896040593125281</v>
+        <v>0.004210160265119747</v>
       </c>
       <c r="E60">
-        <v>0.0008258101893567858</v>
+        <v>0.008210279850996293</v>
       </c>
       <c r="F60">
-        <v>0.005842671586179291</v>
+        <v>0.08831909477073453</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4805,19 +5114,19 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.8043872731698317</v>
+        <v>0.5665544604710088</v>
       </c>
       <c r="C61">
-        <v>0.1889499522101479</v>
+        <v>0.3347603591584484</v>
       </c>
       <c r="D61">
-        <v>0.000265432959519866</v>
+        <v>0.003998239765187575</v>
       </c>
       <c r="E61">
-        <v>0.0007622347279427102</v>
+        <v>0.007795856862588111</v>
       </c>
       <c r="F61">
-        <v>0.005635106932557676</v>
+        <v>0.08689108374276712</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4825,19 +5134,19 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.806072960298641</v>
+        <v>0.5681856185953447</v>
       </c>
       <c r="C62">
-        <v>0.1875488840072468</v>
+        <v>0.335168435323737</v>
       </c>
       <c r="D62">
-        <v>0.0002432478460882472</v>
+        <v>0.003797752462186042</v>
       </c>
       <c r="E62">
-        <v>0.0007032172693086726</v>
+        <v>0.007402575516163271</v>
       </c>
       <c r="F62">
-        <v>0.005431690578715321</v>
+        <v>0.08544561810256893</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4845,19 +5154,19 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.8076604806620878</v>
+        <v>0.5697372242034391</v>
       </c>
       <c r="C63">
-        <v>0.1862355006098673</v>
+        <v>0.3356389423934902</v>
       </c>
       <c r="D63">
-        <v>0.0002228912510240678</v>
+        <v>0.003608071122947629</v>
       </c>
       <c r="E63">
-        <v>0.0006484765906531849</v>
+        <v>0.007029494470659209</v>
       </c>
       <c r="F63">
-        <v>0.005232650886367569</v>
+        <v>0.08398626780946383</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4865,19 +5174,19 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.8091555510469101</v>
+        <v>0.571213157117086</v>
       </c>
       <c r="C64">
-        <v>0.1850043110917838</v>
+        <v>0.336166196923798</v>
       </c>
       <c r="D64">
-        <v>0.0002042171771040232</v>
+        <v>0.00342859911933375</v>
       </c>
       <c r="E64">
-        <v>0.0005977424979987863</v>
+        <v>0.006675687563352141</v>
       </c>
       <c r="F64">
-        <v>0.005038178186203274</v>
+        <v>0.08251635927643002</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4885,19 +5194,19 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.8105635553201398</v>
+        <v>0.5726171079369478</v>
       </c>
       <c r="C65">
-        <v>0.1838501701439008</v>
+        <v>0.3367448888607886</v>
       </c>
       <c r="D65">
-        <v>0.000187090441765499</v>
+        <v>0.003258769808283507</v>
       </c>
       <c r="E65">
-        <v>0.000550756357881457</v>
+        <v>0.006340248242159461</v>
       </c>
       <c r="F65">
-        <v>0.00484842773631239</v>
+        <v>0.08103898515182062</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4905,19 +5214,19 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.811889563816836</v>
+        <v>0.5739525872709781</v>
       </c>
       <c r="C66">
-        <v>0.1827682561459357</v>
+        <v>0.3373700594779763</v>
       </c>
       <c r="D66">
-        <v>0.000171386025479989</v>
+        <v>0.003098045746214292</v>
       </c>
       <c r="E66">
-        <v>0.0005072714334234186</v>
+        <v>0.006022293105600208</v>
       </c>
       <c r="F66">
-        <v>0.004663522578324912</v>
+        <v>0.07955701439923105</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4925,19 +5234,19 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.8131383515987631</v>
+        <v>0.5752229345127694</v>
       </c>
       <c r="C67">
-        <v>0.1817540506370108</v>
+        <v>0.338037080500345</v>
       </c>
       <c r="D67">
-        <v>0.0001569884320134606</v>
+        <v>0.002945917778947459</v>
       </c>
       <c r="E67">
-        <v>0.000467053053603293</v>
+        <v>0.005720964664502707</v>
       </c>
       <c r="F67">
-        <v>0.004483556278609227</v>
+        <v>0.07807310254343539</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4945,19 +5254,19 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.8143144156497674</v>
+        <v>0.5764313261917754</v>
       </c>
       <c r="C68">
-        <v>0.1808033190970631</v>
+        <v>0.3387416343670963</v>
       </c>
       <c r="D68">
-        <v>0.0001437910662703358</v>
+        <v>0.002801904041463953</v>
       </c>
       <c r="E68">
-        <v>0.0004298786417321121</v>
+        <v>0.005435433429346099</v>
       </c>
       <c r="F68">
-        <v>0.004308595545166923</v>
+        <v>0.0765897019703182</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4965,19 +5274,19 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.815421991069772</v>
+        <v>0.5775807839162885</v>
       </c>
       <c r="C69">
-        <v>0.1799120929560871</v>
+        <v>0.3394796955840456</v>
       </c>
       <c r="D69">
-        <v>0.0001316956339818986</v>
+        <v>0.002665548895875701</v>
       </c>
       <c r="E69">
-        <v>0.0003955376264382507</v>
+        <v>0.005164899417143071</v>
       </c>
       <c r="F69">
-        <v>0.004138682713720638</v>
+        <v>0.07510907218664709</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4985,19 +5294,19 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.8164650663257079</v>
+        <v>0.5786741819290336</v>
       </c>
       <c r="C70">
-        <v>0.1790766527531427</v>
+        <v>0.3402475131163836</v>
       </c>
       <c r="D70">
-        <v>0.0001206115663028922</v>
+        <v>0.002536421830926018</v>
       </c>
       <c r="E70">
-        <v>0.0003638312558923309</v>
+        <v>0.004908593162183197</v>
       </c>
       <c r="F70">
-        <v>0.003973838098954069</v>
+        <v>0.07363328996147345</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5005,19 +5314,19 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.8174473976142999</v>
+        <v>0.5797142542942713</v>
       </c>
       <c r="C71">
-        <v>0.1782935123717591</v>
+        <v>0.3410415937728039</v>
       </c>
       <c r="D71">
-        <v>0.0001104554713913801</v>
+        <v>0.002414116342008036</v>
       </c>
       <c r="E71">
-        <v>0.0003345723335873634</v>
+        <v>0.004665776305877186</v>
       </c>
       <c r="F71">
-        <v>0.003814062208962312</v>
+        <v>0.07216425928503956</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5025,19 +5334,19 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.8183725223884282</v>
+        <v>0.5807036017343814</v>
       </c>
       <c r="C72">
-        <v>0.1775594042828491</v>
+        <v>0.3418586865327018</v>
       </c>
       <c r="D72">
-        <v>0.0001011506142385666</v>
+        <v>0.002298248807022518</v>
       </c>
       <c r="E72">
-        <v>0.000307584891744059</v>
+        <v>0.004435741832448639</v>
       </c>
       <c r="F72">
-        <v>0.003659337822740086</v>
+        <v>0.0707037210934454</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5045,19 +5354,19 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.8192437720957777</v>
+        <v>0.5816446981330238</v>
       </c>
       <c r="C73">
-        <v>0.1768712657305086</v>
+        <v>0.3426957677691905</v>
       </c>
       <c r="D73">
-        <v>9.262642536175461E-05</v>
+        <v>0.002188457370300771</v>
       </c>
       <c r="E73">
-        <v>0.0002827038163436585</v>
+        <v>0.004217814009355151</v>
       </c>
       <c r="F73">
-        <v>0.003509631932008143</v>
+        <v>0.06925326271812957</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5065,19 +5374,19 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.8200642841756449</v>
+        <v>0.5825398967211346</v>
       </c>
       <c r="C74">
-        <v>0.1762262258001141</v>
+        <v>0.3435500273219583</v>
       </c>
       <c r="D74">
-        <v>8.481803845209824E-05</v>
+        <v>0.002084400844218312</v>
       </c>
       <c r="E74">
-        <v>0.0002597744359025655</v>
+        <v>0.004011348084103011</v>
       </c>
       <c r="F74">
-        <v>0.003364897549886235</v>
+        <v>0.06781432702858563</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5085,19 +5394,19 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.8208370133571055</v>
+        <v>0.583391435961229</v>
       </c>
       <c r="C75">
-        <v>0.1756215933119485</v>
+        <v>0.3444188553754637</v>
       </c>
       <c r="D75">
-        <v>7.766585665898462E-05</v>
+        <v>0.00198575763595176</v>
       </c>
       <c r="E75">
-        <v>0.000238652084392071</v>
+        <v>0.003815729782547694</v>
       </c>
       <c r="F75">
-        <v>0.003225075389894801</v>
+        <v>0.06638822124480762</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5105,19 +5414,19 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.8215647422992283</v>
+        <v>0.5842014451447231</v>
       </c>
       <c r="C76">
-        <v>0.1750548454871925</v>
+        <v>0.3452998300995553</v>
       </c>
       <c r="D76">
-        <v>7.111514687686786E-05</v>
+        <v>0.001892224705024216</v>
       </c>
       <c r="E76">
-        <v>0.0002192016471668624</v>
+        <v>0.003630374647830056</v>
       </c>
       <c r="F76">
-        <v>0.003090095419535332</v>
+        <v>0.06497612540286722</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5125,19 +5434,19 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.8222500916116512</v>
+        <v>0.5849719497162703</v>
       </c>
       <c r="C77">
-        <v>0.1745236173365084</v>
+        <v>0.3461907060112834</v>
       </c>
       <c r="D77">
-        <v>6.511566116256765E-05</v>
+        <v>0.001803516555789469</v>
       </c>
       <c r="E77">
-        <v>0.0002012970973898509</v>
+        <v>0.003454727253758867</v>
       </c>
       <c r="F77">
-        <v>0.002959878293287737</v>
+        <v>0.06357910046289776</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5145,19 +5454,19 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.8228955292916045</v>
+        <v>0.5857048763384283</v>
       </c>
       <c r="C78">
-        <v>0.1740256917246427</v>
+        <v>0.3470894030184031</v>
       </c>
       <c r="D78">
-        <v>5.962128423790449E-05</v>
+        <v>0.001719364267775881</v>
       </c>
       <c r="E78">
-        <v>0.0001848210292185632</v>
+        <v>0.003288260321680807</v>
       </c>
       <c r="F78">
-        <v>0.002834336670296088</v>
+        <v>0.06219809605371179</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5165,19 +5474,19 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.8235033796113644</v>
+        <v>0.5864020577093177</v>
       </c>
       <c r="C79">
-        <v>0.1735589900674696</v>
+        <v>0.3479939961068144</v>
       </c>
       <c r="D79">
-        <v>5.458970591243388E-05</v>
+        <v>0.001639514565805859</v>
       </c>
       <c r="E79">
-        <v>0.0001696641929393696</v>
+        <v>0.003130473765641022</v>
       </c>
       <c r="F79">
-        <v>0.002713376422313957</v>
+        <v>0.06083395785242083</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5185,19 +5494,19 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.824075831488142</v>
+        <v>0.5870652371453221</v>
       </c>
       <c r="C80">
-        <v>0.1731215636207175</v>
+        <v>0.3489027056359413</v>
       </c>
       <c r="D80">
-        <v>4.998211718401732E-05</v>
+        <v>0.001563728930991334</v>
       </c>
       <c r="E80">
-        <v>0.000155725036289074</v>
+        <v>0.002980893686890496</v>
       </c>
       <c r="F80">
-        <v>0.002596897737667156</v>
+        <v>0.05948743460085466</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5205,19 +5514,19 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.8246149463665475</v>
+        <v>0.5876960729402859</v>
       </c>
       <c r="C81">
-        <v>0.1727115853222592</v>
+        <v>0.3498138882077788</v>
       </c>
       <c r="D81">
-        <v>4.57629287325883E-05</v>
+        <v>0.001491782753049229</v>
       </c>
       <c r="E81">
-        <v>0.0001429092553776351</v>
+        <v>0.00283907133549959</v>
       </c>
       <c r="F81">
-        <v>0.002484796127082819</v>
+        <v>0.05815918476338629</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5225,19 +5534,19 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.8251226656420163</v>
+        <v>0.588296142512113</v>
       </c>
       <c r="C82">
-        <v>0.1723273421523204</v>
+        <v>0.3507260280770427</v>
       </c>
       <c r="D82">
-        <v>4.189951050761806E-05</v>
+        <v>0.00142346452385756</v>
       </c>
       <c r="E82">
-        <v>0.0001311293579099017</v>
+        <v>0.002704582053949203</v>
       </c>
       <c r="F82">
-        <v>0.002376963337245499</v>
+        <v>0.05684978283303729</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5245,19 +5554,19 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.8256008176519273</v>
+        <v>0.5888669463471323</v>
       </c>
       <c r="C83">
-        <v>0.1719672279782814</v>
+        <v>0.3516377290715126</v>
       </c>
       <c r="D83">
-        <v>3.836195111649563E-05</v>
+        <v>0.001358575071760538</v>
       </c>
       <c r="E83">
-        <v>0.0001203042407874512</v>
+        <v>0.00257702421505262</v>
       </c>
       <c r="F83">
-        <v>0.002273288177887114</v>
+        <v>0.05555972529454171</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5265,19 +5574,19 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.8260511242595912</v>
+        <v>0.5894099117520947</v>
       </c>
       <c r="C84">
-        <v>0.1716297368529098</v>
+        <v>0.3525477069932708</v>
       </c>
       <c r="D84">
-        <v>3.512283574434814E-05</v>
+        <v>0.001296926835810881</v>
       </c>
       <c r="E84">
-        <v>0.000110358783643646</v>
+        <v>0.002456018164374408</v>
       </c>
       <c r="F84">
-        <v>0.002173657268110765</v>
+        <v>0.05428943625444905</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5285,19 +5594,19 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.8264752070548167</v>
+        <v>0.5899263964231831</v>
       </c>
       <c r="C85">
-        <v>0.171313456736896</v>
+        <v>0.3534547824730931</v>
       </c>
       <c r="D85">
-        <v>3.21570413716375E-05</v>
+        <v>0.001238343178893687</v>
       </c>
       <c r="E85">
-        <v>0.0001012234594161544</v>
+        <v>0.002341205175422249</v>
       </c>
       <c r="F85">
-        <v>0.002077955707499257</v>
+        <v>0.05303927274940768</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5305,19 +5614,19 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.8268745931933842</v>
+        <v>0.5904176918409598</v>
       </c>
       <c r="C86">
-        <v>0.1710170636184553</v>
+        <v>0.3543578742517448</v>
       </c>
       <c r="D86">
-        <v>2.944154810081387E-05</v>
+        <v>0.001182657738495128</v>
       </c>
       <c r="E86">
-        <v>9.283396268241901E-05</v>
+        <v>0.002232246424260417</v>
       </c>
       <c r="F86">
-        <v>0.001986067677376968</v>
+        <v>0.05180952974453974</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5325,19 +5634,19 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.8272507208964546</v>
+        <v>0.5908850264997403</v>
       </c>
       <c r="C87">
-        <v>0.1707393160045374</v>
+        <v>0.3552559928633681</v>
       </c>
       <c r="D87">
-        <v>2.695526545464462E-05</v>
+        <v>0.001129713813749611</v>
       </c>
       <c r="E87">
-        <v>8.513085616653381E-05</v>
+        <v>0.002128821988799249</v>
       </c>
       <c r="F87">
-        <v>0.001897876977386589</v>
+        <v>0.05060044483434265</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5345,19 +5654,19 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.8276049446297179</v>
+        <v>0.5913295689794682</v>
       </c>
       <c r="C88">
-        <v>0.1704790497598373</v>
+        <v>0.3561482346975235</v>
       </c>
       <c r="D88">
-        <v>2.467887256435796E-05</v>
+        <v>0.0010793637873114</v>
       </c>
       <c r="E88">
-        <v>7.805923556309733E-05</v>
+        <v>0.002030629876825776</v>
       </c>
       <c r="F88">
-        <v>0.001813267502317054</v>
+        <v>0.04941220265887099</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5365,19 +5674,19 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.8279385399809317</v>
+        <v>0.591752430867774</v>
       </c>
       <c r="C89">
-        <v>0.170235173271355</v>
+        <v>0.3570337764177526</v>
       </c>
       <c r="D89">
-        <v>2.259467122367533E-05</v>
+        <v>0.001031468580543023</v>
       </c>
       <c r="E89">
-        <v>7.156841260789759E-05</v>
+        <v>0.001937385085831497</v>
       </c>
       <c r="F89">
-        <v>0.001732123663881416</v>
+        <v>0.04824493904809875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5385,19 +5694,19 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.8282527082534137</v>
+        <v>0.5921546695395224</v>
       </c>
       <c r="C90">
-        <v>0.1700066629176931</v>
+        <v>0.3579118697157819</v>
       </c>
       <c r="D90">
-        <v>2.068645084375932E-05</v>
+        <v>0.0009858971404864501</v>
       </c>
       <c r="E90">
-        <v>6.561161615049547E-05</v>
+        <v>0.001848818696841341</v>
       </c>
       <c r="F90">
-        <v>0.001654330761898558</v>
+        <v>0.04709874490736771</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5405,19 +5714,19 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.8285485807920303</v>
+        <v>0.5925372908008005</v>
       </c>
       <c r="C91">
-        <v>0.1697925588236376</v>
+        <v>0.3587818363816707</v>
       </c>
       <c r="D91">
-        <v>1.893936440298387E-05</v>
+        <v>0.0009425259570785591</v>
       </c>
       <c r="E91">
-        <v>6.014571084428802E-05</v>
+        <v>0.001764677003732963</v>
       </c>
       <c r="F91">
-        <v>0.001579775309084372</v>
+        <v>0.0459736698567171</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5425,19 +5734,19 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.8288272230572592</v>
+        <v>0.592901251403956</v>
       </c>
       <c r="C92">
-        <v>0.1695919608818267</v>
+        <v>0.3596430636713336</v>
       </c>
       <c r="D92">
-        <v>1.733981454340634E-05</v>
+        <v>0.0009012386090850353</v>
       </c>
       <c r="E92">
-        <v>5.513093296043662E-05</v>
+        <v>0.001684720678939426</v>
       </c>
       <c r="F92">
-        <v>0.001508345313409841</v>
+        <v>0.04486972563668587</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5445,19 +5754,19 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.8290896384619971</v>
+        <v>0.5932474614399764</v>
       </c>
       <c r="C93">
-        <v>0.1694040250244935</v>
+        <v>0.3604949999539344</v>
       </c>
       <c r="D93">
-        <v>1.587534902225829E-05</v>
+        <v>0.0008619253372530171</v>
       </c>
       <c r="E93">
-        <v>5.05306427486878E-05</v>
+        <v>0.001608723975934967</v>
       </c>
       <c r="F93">
-        <v>0.001439930521738003</v>
+        <v>0.04378688929290107</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5465,19 +5774,19 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.8293367719849291</v>
+        <v>0.5935767866141907</v>
       </c>
       <c r="C94">
-        <v>0.1692279597293714</v>
+        <v>0.3613371506226614</v>
       </c>
       <c r="D94">
-        <v>1.453456478121616E-05</v>
+        <v>0.0008244826432191356</v>
       </c>
       <c r="E94">
-        <v>4.631109270666606E-05</v>
+        <v>0.001536473968498736</v>
       </c>
       <c r="F94">
-        <v>0.00137442262821128</v>
+        <v>0.04272510615142995</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5485,19 +5794,19 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.8295695135734716</v>
+        <v>0.5938900504109826</v>
       </c>
       <c r="C95">
-        <v>0.1690630227448767</v>
+        <v>0.362169074253348</v>
       </c>
       <c r="D95">
-        <v>1.330701994834384E-05</v>
+        <v>0.0007888129127536731</v>
       </c>
       <c r="E95">
-        <v>4.244121107622391E-05</v>
+        <v>0.001467769826422483</v>
       </c>
       <c r="F95">
-        <v>0.00131171545062683</v>
+        <v>0.04168429259649312</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5505,19 +5814,19 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.8297887013485442</v>
+        <v>0.5941880361529309</v>
       </c>
       <c r="C96">
-        <v>0.1689085180206486</v>
+        <v>0.3629903789963095</v>
       </c>
       <c r="D96">
-        <v>1.21831531372048E-05</v>
+        <v>0.0007548240619712078</v>
       </c>
       <c r="E96">
-        <v>3.889239985787318E-05</v>
+        <v>0.001402422127064269</v>
       </c>
       <c r="F96">
-        <v>0.001251705077811738</v>
+        <v>0.04066433866172398</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5525,19 +5834,19 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.8299951246227091</v>
+        <v>0.5944714889595234</v>
       </c>
       <c r="C97">
-        <v>0.1687637928304234</v>
+        <v>0.363800719187619</v>
       </c>
       <c r="D97">
-        <v>1.115420945459959E-05</v>
+        <v>0.0007224292051916145</v>
       </c>
       <c r="E97">
-        <v>3.563834661956139E-05</v>
+        <v>0.001340252201941645</v>
       </c>
       <c r="F97">
-        <v>0.001194289990792985</v>
+        <v>0.03966511044572423</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5545,19 +5854,19 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.8301895267425483</v>
+        <v>0.5947411176103435</v>
       </c>
       <c r="C98">
-        <v>0.1686282350750569</v>
+        <v>0.3645997921668528</v>
       </c>
       <c r="D98">
-        <v>1.021217267263899E-05</v>
+        <v>0.0006915463431912589</v>
       </c>
       <c r="E98">
-        <v>3.265484937181686E-05</v>
+        <v>0.001281091517396072</v>
       </c>
       <c r="F98">
-        <v>0.001139371160349972</v>
+        <v>0.03868645236221619</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5565,19 +5874,19 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.8303726077655137</v>
+        <v>0.5949975963173885</v>
       </c>
       <c r="C99">
-        <v>0.1685012707542977</v>
+        <v>0.3653873352890963</v>
       </c>
       <c r="D99">
-        <v>9.349703062413615E-06</v>
+        <v>0.0006620980706415387</v>
       </c>
       <c r="E99">
-        <v>2.991965378559825E-05</v>
+        <v>0.001224781088238261</v>
       </c>
       <c r="F99">
-        <v>0.001086852123340279</v>
+        <v>0.03772818923463532</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5585,19 +5894,19 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.8305450269808894</v>
+        <v>0.5952415664109498</v>
       </c>
       <c r="C100">
-        <v>0.1683823615966418</v>
+        <v>0.3661631231197174</v>
       </c>
       <c r="D100">
-        <v>8.560080425404842E-06</v>
+        <v>0.0006340113015896816</v>
       </c>
       <c r="E100">
-        <v>2.741230204035715E-05</v>
+        <v>0.001171170923195348</v>
       </c>
       <c r="F100">
-        <v>0.001036639040002681</v>
+        <v>0.03679012824454755</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5605,19 +5914,19 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.8307074052839448</v>
+        <v>0.5954736379432737</v>
       </c>
       <c r="C101">
-        <v>0.1682710028372881</v>
+        <v>0.3669269648010927</v>
       </c>
       <c r="D101">
-        <v>7.837151895070164E-06</v>
+        <v>0.000607217011894209</v>
       </c>
       <c r="E101">
-        <v>2.511399260641299E-05</v>
+        <v>0.001120119500919825</v>
       </c>
       <c r="F101">
-        <v>0.0009886407342652214</v>
+        <v>0.03587206074281945</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5625,19 +5934,19 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.8308603274118278</v>
+        <v>0.5956943912140085</v>
       </c>
       <c r="C102">
-        <v>0.1681667211348501</v>
+        <v>0.3676787015811056</v>
       </c>
       <c r="D102">
-        <v>7.175284114818755E-06</v>
+        <v>0.0005816499975841551</v>
       </c>
       <c r="E102">
-        <v>2.300745028651775E-05</v>
+        <v>0.001071493275282341</v>
       </c>
       <c r="F102">
-        <v>0.0009427687189203464</v>
+        <v>0.03497376393201925</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5645,19 +5954,19 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.8310043440492494</v>
+        <v>0.5959043782212563</v>
       </c>
       <c r="C103">
-        <v>0.1680690726180812</v>
+        <v>0.3684182044938398</v>
       </c>
       <c r="D103">
-        <v>6.569319429977464E-06</v>
+        <v>0.0005572486481665626</v>
       </c>
       <c r="E103">
-        <v>2.107680586541691E-05</v>
+        <v>0.001025166208651632</v>
       </c>
       <c r="F103">
-        <v>0.0008989372073736286</v>
+        <v>0.03409500242808548</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5665,19 +5974,19 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.831139973811543</v>
+        <v>0.5961041240418556</v>
       </c>
       <c r="C104">
-        <v>0.1679776410544265</v>
+        <v>0.3691453721834512</v>
       </c>
       <c r="D104">
-        <v>6.01453576045011E-06</v>
+        <v>0.000533954733960646</v>
       </c>
       <c r="E104">
-        <v>1.930748474241798E-05</v>
+        <v>0.000981019331861719</v>
       </c>
       <c r="F104">
-        <v>0.0008570631135270969</v>
+        <v>0.03323552970887064</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5685,19 +5994,19 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.8312677051122398</v>
+        <v>0.5962941281443466</v>
       </c>
       <c r="C105">
-        <v>0.1678920361327398</v>
+        <v>0.3698601288627373</v>
       </c>
       <c r="D105">
-        <v>5.506609847716425E-06</v>
+        <v>0.0005117132065890691</v>
       </c>
       <c r="E105">
-        <v>1.768610394973058E-05</v>
+        <v>0.0009389403295758919</v>
       </c>
       <c r="F105">
-        <v>0.0008170660412224772</v>
+        <v>0.03239508945675094</v>
       </c>
     </row>
   </sheetData>

--- a/arch/MSEIR.xlsx
+++ b/arch/MSEIR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Параметр</t>
   </si>
@@ -43,13 +43,13 @@
     <t>M₀ (материнский иммунитет)</t>
   </si>
   <si>
-    <t>0.89</t>
+    <t>0.9902</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.0056</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.0042</t>
   </si>
   <si>
     <t>0.03</t>
@@ -73,10 +73,13 @@
     <t>μ (выход из изоляции)</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>0.0841</t>
   </si>
   <si>
-    <t>0.15</t>
+    <t>0.0259</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>0.25</t>
@@ -547,304 +550,304 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.07682381510416667</c:v>
+                  <c:v>0.07916480260416667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1023394173778924</c:v>
+                  <c:v>0.1069072210763266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1266106091104147</c:v>
+                  <c:v>0.1332966259055055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1496980809167716</c:v>
+                  <c:v>0.1583990043422354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1716595634959351</c:v>
+                  <c:v>0.182277125401035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1925499719876135</c:v>
+                  <c:v>0.2049906968156234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2124215432886895</c:v>
+                  <c:v>0.2265965143393387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2313239666726576</c:v>
+                  <c:v>0.2471486037640895</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2493045080386762</c:v>
+                  <c:v>0.2666983560129606</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2664081281009222</c:v>
+                  <c:v>0.2852946556442754</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2826775948137835</c:v>
+                  <c:v>0.3029840030884409</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2981535903140099</c:v>
+                  <c:v>0.3198106309232325</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3128748126472345</c:v>
+                  <c:v>0.3358166144782658</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3268780725332341</c:v>
+                  <c:v>0.3510419770452254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3401983854118926</c:v>
+                  <c:v>0.3655247899569304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3528690590000296</c:v>
+                  <c:v>0.3793012677854867</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3649217765780332</c:v>
+                  <c:v>0.3924058588975705</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3763866762145546</c:v>
+                  <c:v>0.4048713315932793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3872924261273709</c:v>
+                  <c:v>0.4167288560439413</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3976662963688532</c:v>
+                  <c:v>0.4280080822337712</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4075342270152953</c:v>
+                  <c:v>0.4387372141002664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4169208930306085</c:v>
+                  <c:v>0.4489430800587341</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4258497659665774</c:v>
+                  <c:v>0.4586512000872967</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4343431726539591</c:v>
+                  <c:v>0.4678858495401225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4424223510311828</c:v>
+                  <c:v>0.4766701198484494</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4501075032502534</c:v>
+                  <c:v>0.4850259762611844</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.4574178461926482</c:v>
+                  <c:v>0.4929743127694609</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.464371659521525</c:v>
+                  <c:v>0.5005350043524942</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.470986331390397</c:v>
+                  <c:v>0.5077269566753768</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4772784019225683</c:v>
+                  <c:v>0.514568153363083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4832636045700535</c:v>
+                  <c:v>0.5210757009688942</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4889569054553985</c:v>
+                  <c:v>0.5272658717496875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.4943725407947783</c:v>
+                  <c:v>0.5331541443550496</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.4995240524959488</c:v>
+                  <c:v>0.5387552425319586</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5044243220200664</c:v>
+                  <c:v>0.5440831719418173</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5090856025920466</c:v>
+                  <c:v>0.5491512551818977</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.513519549840006</c:v>
+                  <c:v>0.5539721650987699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5177372509404001</c:v>
+                  <c:v>0.5585579564770167</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5217492523417367</c:v>
+                  <c:v>0.56292009618247</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5255655861361878</c:v>
+                  <c:v>0.5670694918353458</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5291957951450421</c:v>
+                  <c:v>0.571016519084973</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5326489567807274</c:v>
+                  <c:v>0.5747710475543181</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5359337057450665</c:v>
+                  <c:v>0.5783424655191813</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5390582556205273</c:v>
+                  <c:v>0.5817397033837733</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5420304194084553</c:v>
+                  <c:v>0.584971256011375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5448576290656438</c:v>
+                  <c:v>0.5880452039659182</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5475469540880957</c:v>
+                  <c:v>0.5909692337176022</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5501051191884435</c:v>
+                  <c:v>0.5937506568630713</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5525385211112319</c:v>
+                  <c:v>0.5963964284082122</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5548532446281094</c:v>
+                  <c:v>0.5989131641592899</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5570550777529251</c:v>
+                  <c:v>0.6013071572659077</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5591495262147766</c:v>
+                  <c:v>0.6035843939571571</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5611418272251992</c:v>
+                  <c:v>0.6057505685103075</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5630369625739211</c:v>
+                  <c:v>0.6078110974894633</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5648396710859311</c:v>
+                  <c:v>0.6097711332897942</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5665544604710088</c:v>
+                  <c:v>0.6116355770212057</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5681856185953447</c:v>
+                  <c:v>0.6134090907636656</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5697372242034391</c:v>
+                  <c:v>0.61509610922483</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.571213157117086</c:v>
+                  <c:v>0.6167008508291225</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5726171079369478</c:v>
+                  <c:v>0.6182273282659904</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.5739525872709781</c:v>
+                  <c:v>0.6196793585237178</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5752229345127694</c:v>
+                  <c:v>0.6210605724338836</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5764313261917754</c:v>
+                  <c:v>0.6223744237503301</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5775807839162885</c:v>
+                  <c:v>0.6236241977853463</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5786741819290336</c:v>
+                  <c:v>0.6248130196246583</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5797142542942713</c:v>
+                  <c:v>0.6259438619417712</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5807036017343814</c:v>
+                  <c:v>0.6270195524312001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5816446981330238</c:v>
+                  <c:v>0.6280427808791785</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5825398967211346</c:v>
+                  <c:v>0.6290161058895244</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.583391435961229</c:v>
+                  <c:v>0.6299419612814816</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5842014451447231</c:v>
+                  <c:v>0.6308226621755351</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5849719497162703</c:v>
+                  <c:v>0.6316604107824173</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.5857048763384283</c:v>
+                  <c:v>0.6324573019097818</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5864020577093177</c:v>
+                  <c:v>0.6332153282003125</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5870652371453221</c:v>
+                  <c:v>0.6339363851143681</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.5876960729402859</c:v>
+                  <c:v>0.6346222756696197</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.588296142512113</c:v>
+                  <c:v>0.6352747149495336</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.5888669463471323</c:v>
+                  <c:v>0.6358953343919728</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5894099117520947</c:v>
+                  <c:v>0.636485685868641</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.5899263964231831</c:v>
+                  <c:v>0.6370472455655698</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.5904176918409598</c:v>
+                  <c:v>0.6375814176743525</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5908850264997403</c:v>
+                  <c:v>0.6380895379033538</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5913295689794682</c:v>
+                  <c:v>0.638572876817676</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.591752430867774</c:v>
+                  <c:v>0.639032643016234</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5921546695395224</c:v>
+                  <c:v>0.6394699861538805</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5925372908008005</c:v>
+                  <c:v>0.6398859998161428</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.592901251403956</c:v>
+                  <c:v>0.6402817242537554</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5932474614399764</c:v>
+                  <c:v>0.6406581489838286</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5935767866141907</c:v>
+                  <c:v>0.6410162152641561</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.5938900504109826</c:v>
+                  <c:v>0.6413568184468499</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5941880361529309</c:v>
+                  <c:v>0.6416808102171865</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5944714889595234</c:v>
+                  <c:v>0.6419890007232635</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5947411176103435</c:v>
+                  <c:v>0.6422821606017916</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5949975963173885</c:v>
+                  <c:v>0.6425610229050877</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5952415664109498</c:v>
+                  <c:v>0.6428262849340871</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5954736379432737</c:v>
+                  <c:v>0.6430786099819592</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5956943912140085</c:v>
+                  <c:v>0.6433186289926854</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.5959043782212563</c:v>
+                  <c:v>0.6435469421387476</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5961041240418556</c:v>
+                  <c:v>0.6437641203218719</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5962941281443466</c:v>
+                  <c:v>0.6439707066005803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,307 +1189,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>0.9902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8583894873618806</c:v>
+                  <c:v>0.9615505858374618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8276067947402597</c:v>
+                  <c:v>0.9339487284937018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7978321060864366</c:v>
+                  <c:v>0.9074596384060913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.769159899038444</c:v>
+                  <c:v>0.8821093580380898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.741635806013786</c:v>
+                  <c:v>0.8578979932577586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7152774205506993</c:v>
+                  <c:v>0.8348087074345301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6900859960486143</c:v>
+                  <c:v>0.8128138255583754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6660529894967518</c:v>
+                  <c:v>0.7918789702091191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6431636979266647</c:v>
+                  <c:v>0.7719658578759174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6213992670599237</c:v>
+                  <c:v>0.7530341833718838</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6007378010182171</c:v>
+                  <c:v>0.7350428832771723</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5811549877790796</c:v>
+                  <c:v>0.7179509763212099</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5626244749429424</c:v>
+                  <c:v>0.7017181154253771</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5451181266130601</c:v>
+                  <c:v>0.6863049432051179</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.528606232190185</c:v>
+                  <c:v>0.6716733135581034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5130577031781266</c:v>
+                  <c:v>0.6577864221184179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4984402741536217</c:v>
+                  <c:v>0.6446088748376528</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4847207128185818</c:v>
+                  <c:v>0.6321067147318091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4718650380016985</c:v>
+                  <c:v>0.6202474205325987</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.459838741528502</c:v>
+                  <c:v>0.6089998866707408</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4486070087822094</c:v>
+                  <c:v>0.5983343910643876</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.4381349327634806</c:v>
+                  <c:v>0.5882225551578915</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4283877170447871</c:v>
+                  <c:v>0.5786372992620623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.4193308638999862</c:v>
+                  <c:v>0.5695527952873424</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4109303448786535</c:v>
+                  <c:v>0.560944418299712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.4031527520672987</c:v>
+                  <c:v>0.5527886978724359</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3959654291641173</c:v>
+                  <c:v>0.5450632698911393</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3893365822520687</c:v>
+                  <c:v>0.5377468292513419</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3832353707712367</c:v>
+                  <c:v>0.530819083736379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3776319796652725</c:v>
+                  <c:v>0.5242607092588729</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.3724976740176458</c:v>
+                  <c:v>0.5180533065762981</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.3678048377165694</c:v>
+                  <c:v>0.5121793595408628</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3635269978107144</c:v>
+                  <c:v>0.506622194909082</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.3596388362597887</c:v>
+                  <c:v>0.501365943712337</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3561161907625854</c:v>
+                  <c:v>0.4963955041731412</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3529360462764709</c:v>
+                  <c:v>0.4916965061404878</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3500765187406437</c:v>
+                  <c:v>0.4872552770099851</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3475168323927528</c:v>
+                  <c:v>0.4830588090893811</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3452372919342284</c:v>
+                  <c:v>0.4790947283667947</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.3432192506614877</c:v>
+                  <c:v>0.4753512646369656</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3414450755436799</c:v>
+                  <c:v>0.4718172229397462</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3398981100968623</c:v>
+                  <c:v>0.4684819562646174</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.338562635782191</c:v>
+                  <c:v>0.465335339475046</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.3374238325434977</c:v>
+                  <c:v>0.4623677444068702</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3364677389983434</c:v>
+                  <c:v>0.459570016095525</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3356812127064897</c:v>
+                  <c:v>0.4569334500877189</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3350518908604634</c:v>
+                  <c:v>0.4544497707941137</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.334568151673959</c:v>
+                  <c:v>0.4521111108405936</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.334219076684475</c:v>
+                  <c:v>0.4499099913768188</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.3339944141359742</c:v>
+                  <c:v>0.447839303301918</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3338845435645802</c:v>
+                  <c:v>0.4458922893683703</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.33388044167449</c:v>
+                  <c:v>0.4440625271263461</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.333973649561536</c:v>
+                  <c:v>0.4423439126720073</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.3341562413173577</c:v>
+                  <c:v>0.440730645164509</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3344207940272182</c:v>
+                  <c:v>0.4392172120776746</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3347603591584484</c:v>
+                  <c:v>0.4377983751535499</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.335168435323737</c:v>
+                  <c:v>0.4364691570262551</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.3356389423934902</c:v>
+                  <c:v>0.4352248284857528</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.336166196923798</c:v>
+                  <c:v>0.4340608963523328</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.3367448888607886</c:v>
+                  <c:v>0.4329730919337667</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.3373700594779763</c:v>
+                  <c:v>0.4319573600382222</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.338037080500345</c:v>
+                  <c:v>0.4310098485171283</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.3387416343670963</c:v>
+                  <c:v>0.4301268983132596</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.3394796955840456</c:v>
+                  <c:v>0.4293050339903533</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.3402475131163836</c:v>
+                  <c:v>0.428540954721589</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.3410415937728039</c:v>
+                  <c:v>0.4278315257152417</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.3418586865327018</c:v>
+                  <c:v>0.4271737700567728</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.3426957677691905</c:v>
+                  <c:v>0.4265648609475394</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.3435500273219583</c:v>
+                  <c:v>0.4260021143211916</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.3444188553754637</c:v>
+                  <c:v>0.4254829818196788</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.3452998300995553</c:v>
+                  <c:v>0.4250050441116098</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.3461907060112834</c:v>
+                  <c:v>0.4245660045365021</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.3470894030184031</c:v>
+                  <c:v>0.424163683059212</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.3479939961068144</c:v>
+                  <c:v>0.4237960105195713</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.3489027056359413</c:v>
+                  <c:v>0.4234610231629496</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.3498138882077788</c:v>
+                  <c:v>0.4231568574381344</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.3507260280770427</c:v>
+                  <c:v>0.4228817450495616</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.3516377290715126</c:v>
+                  <c:v>0.4226340082515421</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.3525477069932708</c:v>
+                  <c:v>0.4224120553727189</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.3534547824730931</c:v>
+                  <c:v>0.4222143765595465</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.3543578742517448</c:v>
+                  <c:v>0.4220395397281266</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.3552559928633681</c:v>
+                  <c:v>0.4218861867142387</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3561482346975235</c:v>
+                  <c:v>0.4217530296118999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.3570337764177526</c:v>
+                  <c:v>0.4216388472912488</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.3579118697157819</c:v>
+                  <c:v>0.4215424820869977</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.3587818363816707</c:v>
+                  <c:v>0.4214628366491175</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.3596430636713336</c:v>
+                  <c:v>0.421398870947828</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.3604949999539344</c:v>
+                  <c:v>0.4213495994253478</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.3613371506226614</c:v>
+                  <c:v>0.4213140882872277</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.362169074253348</c:v>
+                  <c:v>0.4212914529264404</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.3629903789963095</c:v>
+                  <c:v>0.421280855473732</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.363800719187619</c:v>
+                  <c:v>0.421281502468058</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.3645997921668528</c:v>
+                  <c:v>0.4212926426412283</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.3653873352890963</c:v>
+                  <c:v>0.421313564811174</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.3661631231197174</c:v>
+                  <c:v>0.42134359587852</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.3669269648010927</c:v>
+                  <c:v>0.4213820989214098</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.3676787015811056</c:v>
+                  <c:v>0.4214284713837755</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.3684182044938398</c:v>
+                  <c:v>0.4214821433524814</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.3691453721834512</c:v>
+                  <c:v>0.4215425759189931</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.3698601288627373</c:v>
+                  <c:v>0.4216092596214393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,304 +1834,304 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02849657441976107</c:v>
+                  <c:v>0.02326739928577959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02790518064468228</c:v>
+                  <c:v>0.01849443246230884</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02780176980487953</c:v>
+                  <c:v>0.01509410168832196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02793719932452178</c:v>
+                  <c:v>0.01265662518170226</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02816446552729801</c:v>
+                  <c:v>0.01089550282113301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02839678951815139</c:v>
+                  <c:v>0.009610132432362606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02858336397178888</c:v>
+                  <c:v>0.008659861828693131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02869522825642631</c:v>
+                  <c:v>0.007945949475144692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02871696681600616</c:v>
+                  <c:v>0.007399001632087317</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02864176529903089</c:v>
+                  <c:v>0.006970207726498103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02846840924965529</c:v>
+                  <c:v>0.00662521454910871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02819941160745041</c:v>
+                  <c:v>0.006339837125069209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02783980075676559</c:v>
+                  <c:v>0.006097050336460952</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02739629989768139</c:v>
+                  <c:v>0.005884875322949389</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02687674335396973</c:v>
+                  <c:v>0.005694892176033208</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02628964166181639</c:v>
+                  <c:v>0.00552119181038649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02564384532094379</c:v>
+                  <c:v>0.00535963635347778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.02494827873501468</c:v>
+                  <c:v>0.005207336643404554</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0242117279804725</c:v>
+                  <c:v>0.00506228276307683</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0234426726372317</c:v>
+                  <c:v>0.004923082617808322</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.02264915535427934</c:v>
+                  <c:v>0.004788776903845039</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02183868450398946</c:v>
+                  <c:v>0.004658708161046028</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02101816602356451</c:v>
+                  <c:v>0.004532428162281487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.02019386083049871</c:v>
+                  <c:v>0.004409632504291661</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.01937136430437404</c:v>
+                  <c:v>0.004290114513616433</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.01855560439724654</c:v>
+                  <c:v>0.004173732873776472</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.01775085504117657</c:v>
+                  <c:v>0.004060389000439102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.01696076169098262</c:v>
+                  <c:v>0.003950011338758471</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.01618837607438688</c:v>
+                  <c:v>0.003842544570892672</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.01543619750840644</c:v>
+                  <c:v>0.00373794229980825</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.01470621846253782</c:v>
+                  <c:v>0.003636162186789121</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.01399997238744153</c:v>
+                  <c:v>0.003537162813134206</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.01331858216563278</c:v>
+                  <c:v>0.003440901745639812</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.01266280786436229</c:v>
+                  <c:v>0.003347334434863504</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.01203309277020004</c:v>
+                  <c:v>0.003256413682029917</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0114296069530565</c:v>
+                  <c:v>0.003168089486951094</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.01085228784081397</c:v>
+                  <c:v>0.00308230914415489</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.01030087748326815</c:v>
+                  <c:v>0.002999017493710022</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.009774956346531614</c:v>
+                  <c:v>0.002918157261401675</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.009273973608668993</c:v>
+                  <c:v>0.002839669443087387</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.008797274027269505</c:v>
+                  <c:v>0.002763493702495775</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.008344121523565789</c:v>
+                  <c:v>0.002689568762030773</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.007913719679403896</c:v>
+                  <c:v>0.002617832773467385</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.007505229376615771</c:v>
+                  <c:v>0.002548223660602716</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.007117783826669887</c:v>
+                  <c:v>0.002480679429557239</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.006750501245068742</c:v>
+                  <c:v>0.002415138444937825</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.006402495422623944</c:v>
+                  <c:v>0.002351539671788477</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.006072884436862227</c:v>
+                  <c:v>0.002289822884392833</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.00576079773339115</c:v>
+                  <c:v>0.002229928843718295</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.005465381790700509</c:v>
+                  <c:v>0.002171799445723873</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.005185804563878157</c:v>
+                  <c:v>0.002115377842978767</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.004921258884066874</c:v>
+                  <c:v>0.002060608542119002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.004670964971922665</c:v>
+                  <c:v>0.002007437479650557</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.004434172205386964</c:v>
+                  <c:v>0.001955812078522168</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.004210160265119747</c:v>
+                  <c:v>0.001905681287763306</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.003998239765187575</c:v>
+                  <c:v>0.001856995607329628</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.003797752462186042</c:v>
+                  <c:v>0.001809707100131786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.003608071122947629</c:v>
+                  <c:v>0.001763769393052414</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.00342859911933375</c:v>
+                  <c:v>0.001719137668586381</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.003258769808283507</c:v>
+                  <c:v>0.001675768648575036</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.003098045746214292</c:v>
+                  <c:v>0.00163362057134889</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.002945917778947459</c:v>
+                  <c:v>0.001592653163446499</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.002801904041463953</c:v>
+                  <c:v>0.001552827606941261</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.002665548895875701</c:v>
+                  <c:v>0.001514106503282611</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.002536421830926018</c:v>
+                  <c:v>0.001476453834443852</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.002414116342008036</c:v>
+                  <c:v>0.001439834922065138</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.002298248807022518</c:v>
+                  <c:v>0.001404216385186643</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.002188457370300771</c:v>
+                  <c:v>0.00136956609708299</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.002084400844218312</c:v>
+                  <c:v>0.001335853141635088</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.00198575763595176</c:v>
+                  <c:v>0.001303047769608835</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.001892224705024216</c:v>
+                  <c:v>0.001271121355151144</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.001803516555789469</c:v>
+                  <c:v>0.001240046352761688</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.001719364267775881</c:v>
+                  <c:v>0.001209796254953032</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.001639514565805859</c:v>
+                  <c:v>0.00118034555077187</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.001563728930991334</c:v>
+                  <c:v>0.001151669685319203</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.001491782753049229</c:v>
+                  <c:v>0.00112374502037714</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.00142346452385756</c:v>
+                  <c:v>0.001096548796223905</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.001358575071760538</c:v>
+                  <c:v>0.001070059094696228</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.001296926835810881</c:v>
+                  <c:v>0.001044254803539188</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.001238343178893687</c:v>
+                  <c:v>0.001019115582067292</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.001182657738495128</c:v>
+                  <c:v>0.0009946218281468885</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.001129713813749611</c:v>
+                  <c:v>0.0009707546464984896</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.0010793637873114</c:v>
+                  <c:v>0.0009474958183080937</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.001031468580543023</c:v>
+                  <c:v>0.0009248277721287231</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0009858971404864501</c:v>
+                  <c:v>0.0009027335560470697</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0009425259570785591</c:v>
+                  <c:v>0.0008811968110850622</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.0009012386090850353</c:v>
+                  <c:v>0.0008602017458022048</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0008619253372530171</c:v>
+                  <c:v>0.0008397331120615254</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.0008244826432191356</c:v>
+                  <c:v>0.0008197761819197647</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.0007888129127536731</c:v>
+                  <c:v>0.0008003167256009298</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.0007548240619712078</c:v>
+                  <c:v>0.0007813409905114024</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.0007224292051916145</c:v>
+                  <c:v>0.0007628356812543551</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.0006915463431912589</c:v>
+                  <c:v>0.0007447879406012016</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.0006620980706415387</c:v>
+                  <c:v>0.0007271853313781141</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.0006340113015896816</c:v>
+                  <c:v>0.0007100158192262281</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.000607217011894209</c:v>
+                  <c:v>0.0006932677561949658</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.0005816499975841551</c:v>
+                  <c:v>0.0006769298651288945</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0005572486481665626</c:v>
+                  <c:v>0.0006609912248096677</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.000533954733960646</c:v>
+                  <c:v>0.0006454412558158242</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0005117132065890691</c:v>
+                  <c:v>0.000630269707064529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,307 +2473,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.0056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02336763901454324</c:v>
+                  <c:v>0.0117156731584941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02595502704029149</c:v>
+                  <c:v>0.01611674570502551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02804482947125034</c:v>
+                  <c:v>0.01929651776380285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02979865048184266</c:v>
+                  <c:v>0.02160182098199497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03130760502768642</c:v>
+                  <c:v>0.02327704365646475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0326218953677338</c:v>
+                  <c:v>0.02449480585632064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03376820561984322</c:v>
+                  <c:v>0.02537736766816292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03475998883937387</c:v>
+                  <c:v>0.02601159501687359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03560357885194759</c:v>
+                  <c:v>0.02645943915044528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03630182873866788</c:v>
+                  <c:v>0.02676528649627484</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.03685626906244346</c:v>
+                  <c:v>0.02696112144946124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.03726836917026936</c:v>
+                  <c:v>0.02707015809548262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.03754024719699304</c:v>
+                  <c:v>0.02710939826976808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03767503598757762</c:v>
+                  <c:v>0.02709143547231987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03767703122612716</c:v>
+                  <c:v>0.02702572824719549</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03755170047334221</c:v>
+                  <c:v>0.02691949979919836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03730560358875664</c:v>
+                  <c:v>0.02677837395317496</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03694625803095209</c:v>
+                  <c:v>0.02660682491610526</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03648197206831457</c:v>
+                  <c:v>0.02640849542312373</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03592166225539569</c:v>
+                  <c:v>0.02618642178482675</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.03527466705345334</c:v>
+                  <c:v>0.02594319305454796</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.03455056529316069</c:v>
+                  <c:v>0.02568106357357612</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03375900578260783</c:v>
+                  <c:v>0.02540203253417164</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.0329095524727902</c:v>
+                  <c:v>0.0251079002291401</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.03201154805376721</c:v>
+                  <c:v>0.02480030784565752</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.03107399758704539</c:v>
+                  <c:v>0.02448076566843149</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0301054727402879</c:v>
+                  <c:v>0.02415067314309083</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.02911403635374418</c:v>
+                  <c:v>0.02381133324595113</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.02810718641542441</c:v>
+                  <c:v>0.02346396289184369</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0270918180371842</c:v>
+                  <c:v>0.0231097006033459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.02607420168896481</c:v>
+                  <c:v>0.02274961230294859</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.02505997574456602</c:v>
+                  <c:v>0.02238469583222541</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.02405415129966267</c:v>
+                  <c:v>0.02201588461896109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.02306112722122385</c:v>
+                  <c:v>0.02164405078314147</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.02208471345754284</c:v>
+                  <c:v>0.02127000788053459</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0211281607615107</c:v>
+                  <c:v>0.02089451341747832</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.02019419514017035</c:v>
+                  <c:v>0.02051827122470798</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.01928505552674455</c:v>
+                  <c:v>0.02014193374608213</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.01840253336534376</c:v>
+                  <c:v>0.01976610427594059</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.01754801299385665</c:v>
+                  <c:v>0.01939133916372032</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.01672251189974206</c:v>
+                  <c:v>0.01901814999433044</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.01592672010121151</c:v>
+                  <c:v>0.01864700574618718</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.01516103806899486</c:v>
+                  <c:v>0.0182783349246877</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.01442561274936582</c:v>
+                  <c:v>0.01791252766650625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0137203713764062</c:v>
+                  <c:v>0.01754993780889007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.01304505287057095</c:v>
+                  <c:v>0.01719088491773035</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.01239923671213678</c:v>
+                  <c:v>0.01683565626831135</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.01178236925321364</c:v>
+                  <c:v>0.01648450877310386</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.01119378749212318</c:v>
+                  <c:v>0.01613767085163047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.01063274038072435</c:v>
+                  <c:v>0.01579534423819364</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.01009840777038028</c:v>
+                  <c:v>0.01545770572405778</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.009589917127379315</c:v>
+                  <c:v>0.01512490883146922</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.009106358165334316</c:v>
+                  <c:v>0.01479708541765397</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.008646795551859932</c:v>
+                  <c:v>0.01447434720763494</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.008210279850996293</c:v>
+                  <c:v>0.0141567872553472</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.007795856862588111</c:v>
+                  <c:v>0.01384448133309823</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.007402575516163271</c:v>
+                  <c:v>0.01353748924991794</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.007029494470659209</c:v>
+                  <c:v>0.01323585609977327</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.006675687563352141</c:v>
+                  <c:v>0.01293961344098687</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.006340248242159461</c:v>
+                  <c:v>0.01264878040850407</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.006022293105600208</c:v>
+                  <c:v>0.01236336476090105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.005720964664502707</c:v>
+                  <c:v>0.0120833638642254</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.005435433429346099</c:v>
+                  <c:v>0.01180876561491407</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.005164899417143071</c:v>
+                  <c:v>0.01153954930414639</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.004908593162183197</c:v>
+                  <c:v>0.01127568642606821</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.004665776305877186</c:v>
+                  <c:v>0.01101714143237026</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.004435741832448639</c:v>
+                  <c:v>0.0107638724357246</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.004217814009355151</c:v>
+                  <c:v>0.01051583186458113</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.004011348084103011</c:v>
+                  <c:v>0.01027296707180504</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.003815729782547694</c:v>
+                  <c:v>0.01003522089959867</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.003630374647830056</c:v>
+                  <c:v>0.009802532203101216</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.003454727253758867</c:v>
+                  <c:v>0.009574836334998209</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.003288260321680807</c:v>
+                  <c:v>0.009352065593403246</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.003130473765641022</c:v>
+                  <c:v>0.009134149635198001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.002980893686890496</c:v>
+                  <c:v>0.0089210158569354</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.00283907133549959</c:v>
+                  <c:v>0.008712589745326084</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.002704582053949203</c:v>
+                  <c:v>0.008508795199241378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.00257702421505262</c:v>
+                  <c:v>0.008309554825077902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.002456018164374408</c:v>
+                  <c:v>0.008114790207240593</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.002341205175422249</c:v>
+                  <c:v>0.00792442215541315</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.002232246424260417</c:v>
+                  <c:v>0.007738370930198155</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.002128821988799249</c:v>
+                  <c:v>0.007556556448624176</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.002030629876825776</c:v>
+                  <c:v>0.00737889847093414</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.001937385085831497</c:v>
+                  <c:v>0.007205316769988773</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.001848818696841341</c:v>
+                  <c:v>0.007035731284540996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.001764677003732963</c:v>
+                  <c:v>0.006870062257562128</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.001684720678939426</c:v>
+                  <c:v>0.006708230360728736</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.001608723975934967</c:v>
+                  <c:v>0.006550156806109955</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.001536473968498736</c:v>
+                  <c:v>0.006395763446029273</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.001467769826422483</c:v>
+                  <c:v>0.006244972862012065</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.001402422127064269</c:v>
+                  <c:v>0.006097708443670503</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.001340252201941645</c:v>
+                  <c:v>0.005953894458321012</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.001281091517396072</c:v>
+                  <c:v>0.005813456112075863</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.001224781088238261</c:v>
+                  <c:v>0.005676319603099972</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.001171170923195348</c:v>
+                  <c:v>0.005542412167676239</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.001120119500919825</c:v>
+                  <c:v>0.005411662119677853</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.001071493275282341</c:v>
+                  <c:v>0.005283998884003661</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.001025166208651632</c:v>
+                  <c:v>0.005159353024493027</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.000981019331861719</c:v>
+                  <c:v>0.005037656266799296</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0009389403295758919</c:v>
+                  <c:v>0.004918841516666056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,307 +3115,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.0042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01292248409964844</c:v>
+                  <c:v>0.004301539114097872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01619358019687421</c:v>
+                  <c:v>0.004532872262637181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01971068552701888</c:v>
+                  <c:v>0.004853116236278432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02340617023841999</c:v>
+                  <c:v>0.00523319145597766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02723255993529448</c:v>
+                  <c:v>0.005652334863608632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0311539225758021</c:v>
+                  <c:v>0.006095657461163261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03514089107106427</c:v>
+                  <c:v>0.006552430605429768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.03916782673479054</c:v>
+                  <c:v>0.007014881534773103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.04321124836670547</c:v>
+                  <c:v>0.007477345328589353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04724901080145549</c:v>
+                  <c:v>0.00793566676106789</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05125992585590083</c:v>
+                  <c:v>0.008386777635816862</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.05522364112919088</c:v>
+                  <c:v>0.008828397535005719</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05912066445606459</c:v>
+                  <c:v>0.009258821490127972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.06293246496844682</c:v>
+                  <c:v>0.00967676895438733</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.06664160781782563</c:v>
+                  <c:v>0.01008127606173738</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.07023189568668525</c:v>
+                  <c:v>0.01047161848651056</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0736885003586448</c:v>
+                  <c:v>0.01084725595812383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.07699807420089688</c:v>
+                  <c:v>0.0112077921154016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.08014883582214355</c:v>
+                  <c:v>0.01155294523725921</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.08313062721001752</c:v>
+                  <c:v>0.01188252669285278</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.08593494179476266</c:v>
+                  <c:v>0.01219642487695288</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.08855492440876085</c:v>
+                  <c:v>0.01249459304875206</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.09098534518246332</c:v>
+                  <c:v>0.0127770399541877</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.09322255014276601</c:v>
+                  <c:v>0.01304382243910315</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.09526439173202257</c:v>
+                  <c:v>0.01329503949256441</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.09711014269815607</c:v>
+                  <c:v>0.01353082732417148</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.09876039686177021</c:v>
+                  <c:v>0.01375135519586961</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1002169601816797</c:v>
+                  <c:v>0.01395682181145406</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1014827353485552</c:v>
+                  <c:v>0.01414745212550755</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1025616028665687</c:v>
+                  <c:v>0.01432349447488957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1034583012607982</c:v>
+                  <c:v>0.01448521796506961</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1041783086960246</c:v>
+                  <c:v>0.01463291006408964</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.104727727929212</c:v>
+                  <c:v>0.01476687437126715</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1051131761586765</c:v>
+                  <c:v>0.01488742853769905</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1053416809896055</c:v>
+                  <c:v>0.01499490232247671</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1054205834169155</c:v>
+                  <c:v>0.01508963577318491</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1053574484383662</c:v>
+                  <c:v>0.0151719775223819</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1051599836568345</c:v>
+                  <c:v>0.01524228319380985</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1048359660121596</c:v>
+                  <c:v>0.01530091391339289</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1043931765997989</c:v>
+                  <c:v>0.01534823492088072</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1038393433842664</c:v>
+                  <c:v>0.01538461427845449</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.103182091497633</c:v>
+                  <c:v>0.01541042167284634</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1024289007243438</c:v>
+                  <c:v>0.01542602730761739</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1015870697099933</c:v>
+                  <c:v>0.01543180088224734</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1006636863901252</c:v>
+                  <c:v>0.01542811065465259</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0996656041122268</c:v>
+                  <c:v>0.01541532258369468</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.09859942291668009</c:v>
+                  <c:v>0.01539379954818417</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.09747147544752156</c:v>
+                  <c:v>0.01536390063883835</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.09628781697877878</c:v>
+                  <c:v>0.01532598051962023</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.09505421906449156</c:v>
+                  <c:v>0.01528038885487456</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.09377616634823628</c:v>
+                  <c:v>0.01522746979868532</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.09245885609928711</c:v>
+                  <c:v>0.01516756154290841</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.09110720007600771</c:v>
+                  <c:v>0.01510099592038043</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.08972582835147429</c:v>
+                  <c:v>0.01502809805987038</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.08831909477073453</c:v>
+                  <c:v>0.01494918608942048</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.08689108374276712</c:v>
+                  <c:v>0.01486457088481621</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.08544561810256893</c:v>
+                  <c:v>0.01477455586002943</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.08398626780946383</c:v>
+                  <c:v>0.01467943679659127</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.08251635927643002</c:v>
+                  <c:v>0.01457950170897126</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.08103898515182062</c:v>
+                  <c:v>0.01447503074316363</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.07955701439923105</c:v>
+                  <c:v>0.01436629610580982</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.07807310254343539</c:v>
+                  <c:v>0.01425356202131593</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.0765897019703182</c:v>
+                  <c:v>0.01413708471455469</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.07510907218664709</c:v>
+                  <c:v>0.01401711241687118</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.07363328996147345</c:v>
+                  <c:v>0.01389388539324041</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.07216425928503956</c:v>
+                  <c:v>0.01376763598855141</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0707037210934454</c:v>
+                  <c:v>0.01363858869111558</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.06925326271812957</c:v>
+                  <c:v>0.01350696021161765</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.06781432702858563</c:v>
+                  <c:v>0.01337295957584357</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.06638822124480762</c:v>
+                  <c:v>0.01323678822963185</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.06497612540286722</c:v>
+                  <c:v>0.01309864015460246</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.06357910046289776</c:v>
+                  <c:v>0.01295870199332042</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.06219809605371179</c:v>
+                  <c:v>0.01281715318264965</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.06083395785242083</c:v>
+                  <c:v>0.01267416609414601</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.05948743460085466</c:v>
+                  <c:v>0.01252990618042735</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.05815918476338629</c:v>
+                  <c:v>0.01238453212654235</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.05684978283303729</c:v>
+                  <c:v>0.01223819600543931</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.05555972529454171</c:v>
+                  <c:v>0.01209104343671078</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.05428943625444905</c:v>
+                  <c:v>0.01194321374786024</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.05303927274940768</c:v>
+                  <c:v>0.01179484013740307</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.05180952974453974</c:v>
+                  <c:v>0.01164604983917568</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.05060044483434265</c:v>
+                  <c:v>0.01149696428728464</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.04941220265887099</c:v>
+                  <c:v>0.01134769928118155</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.04824493904809875</c:v>
+                  <c:v>0.01119836515039942</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04709874490736771</c:v>
+                  <c:v>0.01104906691853345</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0459736698567171</c:v>
+                  <c:v>0.01089990446609217</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.04486972563668587</c:v>
+                  <c:v>0.01075097269188525</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.04378688929290107</c:v>
+                  <c:v>0.01060236167265179</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04272510615142995</c:v>
+                  <c:v>0.01045415682066689</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.04168429259649312</c:v>
+                  <c:v>0.01030643903909645</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.04066433866172398</c:v>
+                  <c:v>0.01015928487489934</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.03966511044572423</c:v>
+                  <c:v>0.01001276666910293</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.03868645236221619</c:v>
+                  <c:v>0.009866952704302769</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.03772818923463532</c:v>
+                  <c:v>0.009721907349259913</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.03679012824454755</c:v>
+                  <c:v>0.009577691200490067</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.03587206074281945</c:v>
+                  <c:v>0.009434361220757775</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.03497376393201925</c:v>
+                  <c:v>0.009291970874406089</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.03409500242808548</c:v>
+                  <c:v>0.009150570259467901</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.03323552970887064</c:v>
+                  <c:v>0.009010206236519448</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.03239508945675094</c:v>
+                  <c:v>0.008870922554249393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3921,7 +3924,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3929,7 +3932,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3955,38 +3958,38 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3997,16 +4000,16 @@
         <v>0.05</v>
       </c>
       <c r="C5">
-        <v>0.89</v>
+        <v>0.9902</v>
       </c>
       <c r="D5">
         <v>0.03</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.0056</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4014,19 +4017,19 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0.07682381510416667</v>
+        <v>0.07916480260416667</v>
       </c>
       <c r="C6">
-        <v>0.8583894873618806</v>
+        <v>0.9615505858374618</v>
       </c>
       <c r="D6">
-        <v>0.02849657441976107</v>
+        <v>0.02326739928577959</v>
       </c>
       <c r="E6">
-        <v>0.02336763901454324</v>
+        <v>0.0117156731584941</v>
       </c>
       <c r="F6">
-        <v>0.01292248409964844</v>
+        <v>0.004301539114097872</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4034,19 +4037,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.1023394173778924</v>
+        <v>0.1069072210763266</v>
       </c>
       <c r="C7">
-        <v>0.8276067947402597</v>
+        <v>0.9339487284937018</v>
       </c>
       <c r="D7">
-        <v>0.02790518064468228</v>
+        <v>0.01849443246230884</v>
       </c>
       <c r="E7">
-        <v>0.02595502704029149</v>
+        <v>0.01611674570502551</v>
       </c>
       <c r="F7">
-        <v>0.01619358019687421</v>
+        <v>0.004532872262637181</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4054,19 +4057,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.1266106091104147</v>
+        <v>0.1332966259055055</v>
       </c>
       <c r="C8">
-        <v>0.7978321060864366</v>
+        <v>0.9074596384060913</v>
       </c>
       <c r="D8">
-        <v>0.02780176980487953</v>
+        <v>0.01509410168832196</v>
       </c>
       <c r="E8">
-        <v>0.02804482947125034</v>
+        <v>0.01929651776380285</v>
       </c>
       <c r="F8">
-        <v>0.01971068552701888</v>
+        <v>0.004853116236278432</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4074,19 +4077,19 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.1496980809167716</v>
+        <v>0.1583990043422354</v>
       </c>
       <c r="C9">
-        <v>0.769159899038444</v>
+        <v>0.8821093580380898</v>
       </c>
       <c r="D9">
-        <v>0.02793719932452178</v>
+        <v>0.01265662518170226</v>
       </c>
       <c r="E9">
-        <v>0.02979865048184266</v>
+        <v>0.02160182098199497</v>
       </c>
       <c r="F9">
-        <v>0.02340617023841999</v>
+        <v>0.00523319145597766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4094,19 +4097,19 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.1716595634959351</v>
+        <v>0.182277125401035</v>
       </c>
       <c r="C10">
-        <v>0.741635806013786</v>
+        <v>0.8578979932577586</v>
       </c>
       <c r="D10">
-        <v>0.02816446552729801</v>
+        <v>0.01089550282113301</v>
       </c>
       <c r="E10">
-        <v>0.03130760502768642</v>
+        <v>0.02327704365646475</v>
       </c>
       <c r="F10">
-        <v>0.02723255993529448</v>
+        <v>0.005652334863608632</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4114,19 +4117,19 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>0.1925499719876135</v>
+        <v>0.2049906968156234</v>
       </c>
       <c r="C11">
-        <v>0.7152774205506993</v>
+        <v>0.8348087074345301</v>
       </c>
       <c r="D11">
-        <v>0.02839678951815139</v>
+        <v>0.009610132432362606</v>
       </c>
       <c r="E11">
-        <v>0.0326218953677338</v>
+        <v>0.02449480585632064</v>
       </c>
       <c r="F11">
-        <v>0.0311539225758021</v>
+        <v>0.006095657461163261</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4134,19 +4137,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.2124215432886895</v>
+        <v>0.2265965143393387</v>
       </c>
       <c r="C12">
-        <v>0.6900859960486143</v>
+        <v>0.8128138255583754</v>
       </c>
       <c r="D12">
-        <v>0.02858336397178888</v>
+        <v>0.008659861828693131</v>
       </c>
       <c r="E12">
-        <v>0.03376820561984322</v>
+        <v>0.02537736766816292</v>
       </c>
       <c r="F12">
-        <v>0.03514089107106427</v>
+        <v>0.006552430605429768</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4154,19 +4157,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>0.2313239666726576</v>
+        <v>0.2471486037640895</v>
       </c>
       <c r="C13">
-        <v>0.6660529894967518</v>
+        <v>0.7918789702091191</v>
       </c>
       <c r="D13">
-        <v>0.02869522825642631</v>
+        <v>0.007945949475144692</v>
       </c>
       <c r="E13">
-        <v>0.03475998883937387</v>
+        <v>0.02601159501687359</v>
       </c>
       <c r="F13">
-        <v>0.03916782673479054</v>
+        <v>0.007014881534773103</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4174,19 +4177,19 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>0.2493045080386762</v>
+        <v>0.2666983560129606</v>
       </c>
       <c r="C14">
-        <v>0.6431636979266647</v>
+        <v>0.7719658578759174</v>
       </c>
       <c r="D14">
-        <v>0.02871696681600616</v>
+        <v>0.007399001632087317</v>
       </c>
       <c r="E14">
-        <v>0.03560357885194759</v>
+        <v>0.02645943915044528</v>
       </c>
       <c r="F14">
-        <v>0.04321124836670547</v>
+        <v>0.007477345328589353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4194,19 +4197,19 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.2664081281009222</v>
+        <v>0.2852946556442754</v>
       </c>
       <c r="C15">
-        <v>0.6213992670599237</v>
+        <v>0.7530341833718838</v>
       </c>
       <c r="D15">
-        <v>0.02864176529903089</v>
+        <v>0.006970207726498103</v>
       </c>
       <c r="E15">
-        <v>0.03630182873866788</v>
+        <v>0.02676528649627484</v>
       </c>
       <c r="F15">
-        <v>0.04724901080145549</v>
+        <v>0.00793566676106789</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4214,19 +4217,19 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>0.2826775948137835</v>
+        <v>0.3029840030884409</v>
       </c>
       <c r="C16">
-        <v>0.6007378010182171</v>
+        <v>0.7350428832771723</v>
       </c>
       <c r="D16">
-        <v>0.02846840924965529</v>
+        <v>0.00662521454910871</v>
       </c>
       <c r="E16">
-        <v>0.03685626906244346</v>
+        <v>0.02696112144946124</v>
       </c>
       <c r="F16">
-        <v>0.05125992585590083</v>
+        <v>0.008386777635816862</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4234,19 +4237,19 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>0.2981535903140099</v>
+        <v>0.3198106309232325</v>
       </c>
       <c r="C17">
-        <v>0.5811549877790796</v>
+        <v>0.7179509763212099</v>
       </c>
       <c r="D17">
-        <v>0.02819941160745041</v>
+        <v>0.006339837125069209</v>
       </c>
       <c r="E17">
-        <v>0.03726836917026936</v>
+        <v>0.02707015809548262</v>
       </c>
       <c r="F17">
-        <v>0.05522364112919088</v>
+        <v>0.008828397535005719</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4254,19 +4257,19 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>0.3128748126472345</v>
+        <v>0.3358166144782658</v>
       </c>
       <c r="C18">
-        <v>0.5626244749429424</v>
+        <v>0.7017181154253771</v>
       </c>
       <c r="D18">
-        <v>0.02783980075676559</v>
+        <v>0.006097050336460952</v>
       </c>
       <c r="E18">
-        <v>0.03754024719699304</v>
+        <v>0.02710939826976808</v>
       </c>
       <c r="F18">
-        <v>0.05912066445606459</v>
+        <v>0.009258821490127972</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4274,19 +4277,19 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.3268780725332341</v>
+        <v>0.3510419770452254</v>
       </c>
       <c r="C19">
-        <v>0.5451181266130601</v>
+        <v>0.6863049432051179</v>
       </c>
       <c r="D19">
-        <v>0.02739629989768139</v>
+        <v>0.005884875322949389</v>
       </c>
       <c r="E19">
-        <v>0.03767503598757762</v>
+        <v>0.02709143547231987</v>
       </c>
       <c r="F19">
-        <v>0.06293246496844682</v>
+        <v>0.00967676895438733</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4294,19 +4297,19 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>0.3401983854118926</v>
+        <v>0.3655247899569304</v>
       </c>
       <c r="C20">
-        <v>0.528606232190185</v>
+        <v>0.6716733135581034</v>
       </c>
       <c r="D20">
-        <v>0.02687674335396973</v>
+        <v>0.005694892176033208</v>
       </c>
       <c r="E20">
-        <v>0.03767703122612716</v>
+        <v>0.02702572824719549</v>
       </c>
       <c r="F20">
-        <v>0.06664160781782563</v>
+        <v>0.01008127606173738</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4314,19 +4317,19 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.3528690590000296</v>
+        <v>0.3793012677854867</v>
       </c>
       <c r="C21">
-        <v>0.5130577031781266</v>
+        <v>0.6577864221184179</v>
       </c>
       <c r="D21">
-        <v>0.02628964166181639</v>
+        <v>0.00552119181038649</v>
       </c>
       <c r="E21">
-        <v>0.03755170047334221</v>
+        <v>0.02691949979919836</v>
       </c>
       <c r="F21">
-        <v>0.07023189568668525</v>
+        <v>0.01047161848651056</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4334,19 +4337,19 @@
         <v>17</v>
       </c>
       <c r="B22">
-        <v>0.3649217765780332</v>
+        <v>0.3924058588975705</v>
       </c>
       <c r="C22">
-        <v>0.4984402741536217</v>
+        <v>0.6446088748376528</v>
       </c>
       <c r="D22">
-        <v>0.02564384532094379</v>
+        <v>0.00535963635347778</v>
       </c>
       <c r="E22">
-        <v>0.03730560358875664</v>
+        <v>0.02677837395317496</v>
       </c>
       <c r="F22">
-        <v>0.0736885003586448</v>
+        <v>0.01084725595812383</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4354,19 +4357,19 @@
         <v>18</v>
       </c>
       <c r="B23">
-        <v>0.3763866762145546</v>
+        <v>0.4048713315932793</v>
       </c>
       <c r="C23">
-        <v>0.4847207128185818</v>
+        <v>0.6321067147318091</v>
       </c>
       <c r="D23">
-        <v>0.02494827873501468</v>
+        <v>0.005207336643404554</v>
       </c>
       <c r="E23">
-        <v>0.03694625803095209</v>
+        <v>0.02660682491610526</v>
       </c>
       <c r="F23">
-        <v>0.07699807420089688</v>
+        <v>0.0112077921154016</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4374,19 +4377,19 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>0.3872924261273709</v>
+        <v>0.4167288560439413</v>
       </c>
       <c r="C24">
-        <v>0.4718650380016985</v>
+        <v>0.6202474205325987</v>
       </c>
       <c r="D24">
-        <v>0.0242117279804725</v>
+        <v>0.00506228276307683</v>
       </c>
       <c r="E24">
-        <v>0.03648197206831457</v>
+        <v>0.02640849542312373</v>
       </c>
       <c r="F24">
-        <v>0.08014883582214355</v>
+        <v>0.01155294523725921</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4394,19 +4397,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>0.3976662963688532</v>
+        <v>0.4280080822337712</v>
       </c>
       <c r="C25">
-        <v>0.459838741528502</v>
+        <v>0.6089998866707408</v>
       </c>
       <c r="D25">
-        <v>0.0234426726372317</v>
+        <v>0.004923082617808322</v>
       </c>
       <c r="E25">
-        <v>0.03592166225539569</v>
+        <v>0.02618642178482675</v>
       </c>
       <c r="F25">
-        <v>0.08313062721001752</v>
+        <v>0.01188252669285278</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4414,19 +4417,19 @@
         <v>21</v>
       </c>
       <c r="B26">
-        <v>0.4075342270152953</v>
+        <v>0.4387372141002664</v>
       </c>
       <c r="C26">
-        <v>0.4486070087822094</v>
+        <v>0.5983343910643876</v>
       </c>
       <c r="D26">
-        <v>0.02264915535427934</v>
+        <v>0.004788776903845039</v>
       </c>
       <c r="E26">
-        <v>0.03527466705345334</v>
+        <v>0.02594319305454796</v>
       </c>
       <c r="F26">
-        <v>0.08593494179476266</v>
+        <v>0.01219642487695288</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4434,19 +4437,19 @@
         <v>22</v>
       </c>
       <c r="B27">
-        <v>0.4169208930306085</v>
+        <v>0.4489430800587341</v>
       </c>
       <c r="C27">
-        <v>0.4381349327634806</v>
+        <v>0.5882225551578915</v>
       </c>
       <c r="D27">
-        <v>0.02183868450398946</v>
+        <v>0.004658708161046028</v>
       </c>
       <c r="E27">
-        <v>0.03455056529316069</v>
+        <v>0.02568106357357612</v>
       </c>
       <c r="F27">
-        <v>0.08855492440876085</v>
+        <v>0.01249459304875206</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4454,19 +4457,19 @@
         <v>23</v>
       </c>
       <c r="B28">
-        <v>0.4258497659665774</v>
+        <v>0.4586512000872967</v>
       </c>
       <c r="C28">
-        <v>0.4283877170447871</v>
+        <v>0.5786372992620623</v>
       </c>
       <c r="D28">
-        <v>0.02101816602356451</v>
+        <v>0.004532428162281487</v>
       </c>
       <c r="E28">
-        <v>0.03375900578260783</v>
+        <v>0.02540203253417164</v>
       </c>
       <c r="F28">
-        <v>0.09098534518246332</v>
+        <v>0.0127770399541877</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4474,19 +4477,19 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>0.4343431726539591</v>
+        <v>0.4678858495401225</v>
       </c>
       <c r="C29">
-        <v>0.4193308638999862</v>
+        <v>0.5695527952873424</v>
       </c>
       <c r="D29">
-        <v>0.02019386083049871</v>
+        <v>0.004409632504291661</v>
       </c>
       <c r="E29">
-        <v>0.0329095524727902</v>
+        <v>0.0251079002291401</v>
       </c>
       <c r="F29">
-        <v>0.09322255014276601</v>
+        <v>0.01304382243910315</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4494,19 +4497,19 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.4424223510311828</v>
+        <v>0.4766701198484494</v>
       </c>
       <c r="C30">
-        <v>0.4109303448786535</v>
+        <v>0.560944418299712</v>
       </c>
       <c r="D30">
-        <v>0.01937136430437404</v>
+        <v>0.004290114513616433</v>
       </c>
       <c r="E30">
-        <v>0.03201154805376721</v>
+        <v>0.02480030784565752</v>
       </c>
       <c r="F30">
-        <v>0.09526439173202257</v>
+        <v>0.01329503949256441</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4514,19 +4517,19 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.4501075032502534</v>
+        <v>0.4850259762611844</v>
       </c>
       <c r="C31">
-        <v>0.4031527520672987</v>
+        <v>0.5527886978724359</v>
       </c>
       <c r="D31">
-        <v>0.01855560439724654</v>
+        <v>0.004173732873776472</v>
       </c>
       <c r="E31">
-        <v>0.03107399758704539</v>
+        <v>0.02448076566843149</v>
       </c>
       <c r="F31">
-        <v>0.09711014269815607</v>
+        <v>0.01353082732417148</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4534,19 +4537,19 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.4574178461926482</v>
+        <v>0.4929743127694609</v>
       </c>
       <c r="C32">
-        <v>0.3959654291641173</v>
+        <v>0.5450632698911393</v>
       </c>
       <c r="D32">
-        <v>0.01775085504117657</v>
+        <v>0.004060389000439102</v>
       </c>
       <c r="E32">
-        <v>0.0301054727402879</v>
+        <v>0.02415067314309083</v>
       </c>
       <c r="F32">
-        <v>0.09876039686177021</v>
+        <v>0.01375135519586961</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4554,19 +4557,19 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.464371659521525</v>
+        <v>0.5005350043524942</v>
       </c>
       <c r="C33">
-        <v>0.3893365822520687</v>
+        <v>0.5377468292513419</v>
       </c>
       <c r="D33">
-        <v>0.01696076169098262</v>
+        <v>0.003950011338758471</v>
       </c>
       <c r="E33">
-        <v>0.02911403635374418</v>
+        <v>0.02381133324595113</v>
       </c>
       <c r="F33">
-        <v>0.1002169601816797</v>
+        <v>0.01395682181145406</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4574,19 +4577,19 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.470986331390397</v>
+        <v>0.5077269566753768</v>
       </c>
       <c r="C34">
-        <v>0.3832353707712367</v>
+        <v>0.530819083736379</v>
       </c>
       <c r="D34">
-        <v>0.01618837607438688</v>
+        <v>0.003842544570892672</v>
       </c>
       <c r="E34">
-        <v>0.02810718641542441</v>
+        <v>0.02346396289184369</v>
       </c>
       <c r="F34">
-        <v>0.1014827353485552</v>
+        <v>0.01414745212550755</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4594,19 +4597,19 @@
         <v>30</v>
       </c>
       <c r="B35">
-        <v>0.4772784019225683</v>
+        <v>0.514568153363083</v>
       </c>
       <c r="C35">
-        <v>0.3776319796652725</v>
+        <v>0.5242607092588729</v>
       </c>
       <c r="D35">
-        <v>0.01543619750840644</v>
+        <v>0.00373794229980825</v>
       </c>
       <c r="E35">
-        <v>0.0270918180371842</v>
+        <v>0.0231097006033459</v>
       </c>
       <c r="F35">
-        <v>0.1025616028665687</v>
+        <v>0.01432349447488957</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4614,19 +4617,19 @@
         <v>31</v>
       </c>
       <c r="B36">
-        <v>0.4832636045700535</v>
+        <v>0.5210757009688942</v>
       </c>
       <c r="C36">
-        <v>0.3724976740176458</v>
+        <v>0.5180533065762981</v>
       </c>
       <c r="D36">
-        <v>0.01470621846253782</v>
+        <v>0.003636162186789121</v>
       </c>
       <c r="E36">
-        <v>0.02607420168896481</v>
+        <v>0.02274961230294859</v>
       </c>
       <c r="F36">
-        <v>0.1034583012607982</v>
+        <v>0.01448521796506961</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4634,19 +4637,19 @@
         <v>32</v>
       </c>
       <c r="B37">
-        <v>0.4889569054553985</v>
+        <v>0.5272658717496875</v>
       </c>
       <c r="C37">
-        <v>0.3678048377165694</v>
+        <v>0.5121793595408628</v>
       </c>
       <c r="D37">
-        <v>0.01399997238744153</v>
+        <v>0.003537162813134206</v>
       </c>
       <c r="E37">
-        <v>0.02505997574456602</v>
+        <v>0.02238469583222541</v>
       </c>
       <c r="F37">
-        <v>0.1041783086960246</v>
+        <v>0.01463291006408964</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4654,19 +4657,19 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>0.4943725407947783</v>
+        <v>0.5331541443550496</v>
       </c>
       <c r="C38">
-        <v>0.3635269978107144</v>
+        <v>0.506622194909082</v>
       </c>
       <c r="D38">
-        <v>0.01331858216563278</v>
+        <v>0.003440901745639812</v>
       </c>
       <c r="E38">
-        <v>0.02405415129966267</v>
+        <v>0.02201588461896109</v>
       </c>
       <c r="F38">
-        <v>0.104727727929212</v>
+        <v>0.01476687437126715</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4674,19 +4677,19 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>0.4995240524959488</v>
+        <v>0.5387552425319586</v>
       </c>
       <c r="C39">
-        <v>0.3596388362597887</v>
+        <v>0.501365943712337</v>
       </c>
       <c r="D39">
-        <v>0.01266280786436229</v>
+        <v>0.003347334434863504</v>
       </c>
       <c r="E39">
-        <v>0.02306112722122385</v>
+        <v>0.02164405078314147</v>
       </c>
       <c r="F39">
-        <v>0.1051131761586765</v>
+        <v>0.01488742853769905</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4694,19 +4697,19 @@
         <v>35</v>
       </c>
       <c r="B40">
-        <v>0.5044243220200664</v>
+        <v>0.5440831719418173</v>
       </c>
       <c r="C40">
-        <v>0.3561161907625854</v>
+        <v>0.4963955041731412</v>
       </c>
       <c r="D40">
-        <v>0.01203309277020004</v>
+        <v>0.003256413682029917</v>
       </c>
       <c r="E40">
-        <v>0.02208471345754284</v>
+        <v>0.02127000788053459</v>
       </c>
       <c r="F40">
-        <v>0.1053416809896055</v>
+        <v>0.01499490232247671</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4714,19 +4717,19 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <v>0.5090856025920466</v>
+        <v>0.5491512551818977</v>
       </c>
       <c r="C41">
-        <v>0.3529360462764709</v>
+        <v>0.4916965061404878</v>
       </c>
       <c r="D41">
-        <v>0.0114296069530565</v>
+        <v>0.003168089486951094</v>
       </c>
       <c r="E41">
-        <v>0.0211281607615107</v>
+        <v>0.02089451341747832</v>
       </c>
       <c r="F41">
-        <v>0.1054205834169155</v>
+        <v>0.01508963577318491</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4734,19 +4737,19 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <v>0.513519549840006</v>
+        <v>0.5539721650987699</v>
       </c>
       <c r="C42">
-        <v>0.3500765187406437</v>
+        <v>0.4872552770099851</v>
       </c>
       <c r="D42">
-        <v>0.01085228784081397</v>
+        <v>0.00308230914415489</v>
       </c>
       <c r="E42">
-        <v>0.02019419514017035</v>
+        <v>0.02051827122470798</v>
       </c>
       <c r="F42">
-        <v>0.1053574484383662</v>
+        <v>0.0151719775223819</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4754,19 +4757,19 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>0.5177372509404001</v>
+        <v>0.5585579564770167</v>
       </c>
       <c r="C43">
-        <v>0.3475168323927528</v>
+        <v>0.4830588090893811</v>
       </c>
       <c r="D43">
-        <v>0.01030087748326815</v>
+        <v>0.002999017493710022</v>
       </c>
       <c r="E43">
-        <v>0.01928505552674455</v>
+        <v>0.02014193374608213</v>
       </c>
       <c r="F43">
-        <v>0.1051599836568345</v>
+        <v>0.01524228319380985</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4774,19 +4777,19 @@
         <v>39</v>
       </c>
       <c r="B44">
-        <v>0.5217492523417367</v>
+        <v>0.56292009618247</v>
       </c>
       <c r="C44">
-        <v>0.3452372919342284</v>
+        <v>0.4790947283667947</v>
       </c>
       <c r="D44">
-        <v>0.009774956346531614</v>
+        <v>0.002918157261401675</v>
       </c>
       <c r="E44">
-        <v>0.01840253336534376</v>
+        <v>0.01976610427594059</v>
       </c>
       <c r="F44">
-        <v>0.1048359660121596</v>
+        <v>0.01530091391339289</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4794,19 +4797,19 @@
         <v>40</v>
       </c>
       <c r="B45">
-        <v>0.5255655861361878</v>
+        <v>0.5670694918353458</v>
       </c>
       <c r="C45">
-        <v>0.3432192506614877</v>
+        <v>0.4753512646369656</v>
       </c>
       <c r="D45">
-        <v>0.009273973608668993</v>
+        <v>0.002839669443087387</v>
       </c>
       <c r="E45">
-        <v>0.01754801299385665</v>
+        <v>0.01939133916372032</v>
       </c>
       <c r="F45">
-        <v>0.1043931765997989</v>
+        <v>0.01534823492088072</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4814,19 +4817,19 @@
         <v>41</v>
       </c>
       <c r="B46">
-        <v>0.5291957951450421</v>
+        <v>0.571016519084973</v>
       </c>
       <c r="C46">
-        <v>0.3414450755436799</v>
+        <v>0.4718172229397462</v>
       </c>
       <c r="D46">
-        <v>0.008797274027269505</v>
+        <v>0.002763493702495775</v>
       </c>
       <c r="E46">
-        <v>0.01672251189974206</v>
+        <v>0.01901814999433044</v>
       </c>
       <c r="F46">
-        <v>0.1038393433842664</v>
+        <v>0.01538461427845449</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4834,19 +4837,19 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>0.5326489567807274</v>
+        <v>0.5747710475543181</v>
       </c>
       <c r="C47">
-        <v>0.3398981100968623</v>
+        <v>0.4684819562646174</v>
       </c>
       <c r="D47">
-        <v>0.008344121523565789</v>
+        <v>0.002689568762030773</v>
       </c>
       <c r="E47">
-        <v>0.01592672010121151</v>
+        <v>0.01864700574618718</v>
       </c>
       <c r="F47">
-        <v>0.103182091497633</v>
+        <v>0.01541042167284634</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4854,19 +4857,19 @@
         <v>43</v>
       </c>
       <c r="B48">
-        <v>0.5359337057450665</v>
+        <v>0.5783424655191813</v>
       </c>
       <c r="C48">
-        <v>0.338562635782191</v>
+        <v>0.465335339475046</v>
       </c>
       <c r="D48">
-        <v>0.007913719679403896</v>
+        <v>0.002617832773467385</v>
       </c>
       <c r="E48">
-        <v>0.01516103806899486</v>
+        <v>0.0182783349246877</v>
       </c>
       <c r="F48">
-        <v>0.1024289007243438</v>
+        <v>0.01542602730761739</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4874,19 +4877,19 @@
         <v>44</v>
       </c>
       <c r="B49">
-        <v>0.5390582556205273</v>
+        <v>0.5817397033837733</v>
       </c>
       <c r="C49">
-        <v>0.3374238325434977</v>
+        <v>0.4623677444068702</v>
       </c>
       <c r="D49">
-        <v>0.007505229376615771</v>
+        <v>0.002548223660602716</v>
       </c>
       <c r="E49">
-        <v>0.01442561274936582</v>
+        <v>0.01791252766650625</v>
       </c>
       <c r="F49">
-        <v>0.1015870697099933</v>
+        <v>0.01543180088224734</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4894,19 +4897,19 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>0.5420304194084553</v>
+        <v>0.584971256011375</v>
       </c>
       <c r="C50">
-        <v>0.3364677389983434</v>
+        <v>0.459570016095525</v>
       </c>
       <c r="D50">
-        <v>0.007117783826669887</v>
+        <v>0.002480679429557239</v>
       </c>
       <c r="E50">
-        <v>0.0137203713764062</v>
+        <v>0.01754993780889007</v>
       </c>
       <c r="F50">
-        <v>0.1006636863901252</v>
+        <v>0.01542811065465259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4914,19 +4917,19 @@
         <v>46</v>
       </c>
       <c r="B51">
-        <v>0.5448576290656438</v>
+        <v>0.5880452039659182</v>
       </c>
       <c r="C51">
-        <v>0.3356812127064897</v>
+        <v>0.4569334500877189</v>
       </c>
       <c r="D51">
-        <v>0.006750501245068742</v>
+        <v>0.002415138444937825</v>
       </c>
       <c r="E51">
-        <v>0.01304505287057095</v>
+        <v>0.01719088491773035</v>
       </c>
       <c r="F51">
-        <v>0.0996656041122268</v>
+        <v>0.01541532258369468</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4934,19 +4937,19 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>0.5475469540880957</v>
+        <v>0.5909692337176022</v>
       </c>
       <c r="C52">
-        <v>0.3350518908604634</v>
+        <v>0.4544497707941137</v>
       </c>
       <c r="D52">
-        <v>0.006402495422623944</v>
+        <v>0.002351539671788477</v>
       </c>
       <c r="E52">
-        <v>0.01239923671213678</v>
+        <v>0.01683565626831135</v>
       </c>
       <c r="F52">
-        <v>0.09859942291668009</v>
+        <v>0.01539379954818417</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4954,19 +4957,19 @@
         <v>48</v>
       </c>
       <c r="B53">
-        <v>0.5501051191884435</v>
+        <v>0.5937506568630713</v>
       </c>
       <c r="C53">
-        <v>0.334568151673959</v>
+        <v>0.4521111108405936</v>
       </c>
       <c r="D53">
-        <v>0.006072884436862227</v>
+        <v>0.002289822884392833</v>
       </c>
       <c r="E53">
-        <v>0.01178236925321364</v>
+        <v>0.01648450877310386</v>
       </c>
       <c r="F53">
-        <v>0.09747147544752156</v>
+        <v>0.01536390063883835</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4974,19 +4977,19 @@
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0.5525385211112319</v>
+        <v>0.5963964284082122</v>
       </c>
       <c r="C54">
-        <v>0.334219076684475</v>
+        <v>0.4499099913768188</v>
       </c>
       <c r="D54">
-        <v>0.00576079773339115</v>
+        <v>0.002229928843718295</v>
       </c>
       <c r="E54">
-        <v>0.01119378749212318</v>
+        <v>0.01613767085163047</v>
       </c>
       <c r="F54">
-        <v>0.09628781697877878</v>
+        <v>0.01532598051962023</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4994,19 +4997,19 @@
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0.5548532446281094</v>
+        <v>0.5989131641592899</v>
       </c>
       <c r="C55">
-        <v>0.3339944141359742</v>
+        <v>0.447839303301918</v>
       </c>
       <c r="D55">
-        <v>0.005465381790700509</v>
+        <v>0.002171799445723873</v>
       </c>
       <c r="E55">
-        <v>0.01063274038072435</v>
+        <v>0.01579534423819364</v>
       </c>
       <c r="F55">
-        <v>0.09505421906449156</v>
+        <v>0.01528038885487456</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5014,19 +5017,19 @@
         <v>51</v>
       </c>
       <c r="B56">
-        <v>0.5570550777529251</v>
+        <v>0.6013071572659077</v>
       </c>
       <c r="C56">
-        <v>0.3338845435645802</v>
+        <v>0.4458922893683703</v>
       </c>
       <c r="D56">
-        <v>0.005185804563878157</v>
+        <v>0.002115377842978767</v>
       </c>
       <c r="E56">
-        <v>0.01009840777038028</v>
+        <v>0.01545770572405778</v>
       </c>
       <c r="F56">
-        <v>0.09377616634823628</v>
+        <v>0.01522746979868532</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5034,19 +5037,19 @@
         <v>52</v>
       </c>
       <c r="B57">
-        <v>0.5591495262147766</v>
+        <v>0.6035843939571571</v>
       </c>
       <c r="C57">
-        <v>0.33388044167449</v>
+        <v>0.4440625271263461</v>
       </c>
       <c r="D57">
-        <v>0.004921258884066874</v>
+        <v>0.002060608542119002</v>
       </c>
       <c r="E57">
-        <v>0.009589917127379315</v>
+        <v>0.01512490883146922</v>
       </c>
       <c r="F57">
-        <v>0.09245885609928711</v>
+        <v>0.01516756154290841</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5054,19 +5057,19 @@
         <v>53</v>
       </c>
       <c r="B58">
-        <v>0.5611418272251992</v>
+        <v>0.6057505685103075</v>
       </c>
       <c r="C58">
-        <v>0.333973649561536</v>
+        <v>0.4423439126720073</v>
       </c>
       <c r="D58">
-        <v>0.004670964971922665</v>
+        <v>0.002007437479650557</v>
       </c>
       <c r="E58">
-        <v>0.009106358165334316</v>
+        <v>0.01479708541765397</v>
       </c>
       <c r="F58">
-        <v>0.09110720007600771</v>
+        <v>0.01510099592038043</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5074,19 +5077,19 @@
         <v>54</v>
       </c>
       <c r="B59">
-        <v>0.5630369625739211</v>
+        <v>0.6078110974894633</v>
       </c>
       <c r="C59">
-        <v>0.3341562413173577</v>
+        <v>0.440730645164509</v>
       </c>
       <c r="D59">
-        <v>0.004434172205386964</v>
+        <v>0.001955812078522168</v>
       </c>
       <c r="E59">
-        <v>0.008646795551859932</v>
+        <v>0.01447434720763494</v>
       </c>
       <c r="F59">
-        <v>0.08972582835147429</v>
+        <v>0.01502809805987038</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5094,19 +5097,19 @@
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.5648396710859311</v>
+        <v>0.6097711332897942</v>
       </c>
       <c r="C60">
-        <v>0.3344207940272182</v>
+        <v>0.4392172120776746</v>
       </c>
       <c r="D60">
-        <v>0.004210160265119747</v>
+        <v>0.001905681287763306</v>
       </c>
       <c r="E60">
-        <v>0.008210279850996293</v>
+        <v>0.0141567872553472</v>
       </c>
       <c r="F60">
-        <v>0.08831909477073453</v>
+        <v>0.01494918608942048</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5114,19 +5117,19 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.5665544604710088</v>
+        <v>0.6116355770212057</v>
       </c>
       <c r="C61">
-        <v>0.3347603591584484</v>
+        <v>0.4377983751535499</v>
       </c>
       <c r="D61">
-        <v>0.003998239765187575</v>
+        <v>0.001856995607329628</v>
       </c>
       <c r="E61">
-        <v>0.007795856862588111</v>
+        <v>0.01384448133309823</v>
       </c>
       <c r="F61">
-        <v>0.08689108374276712</v>
+        <v>0.01486457088481621</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5134,19 +5137,19 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.5681856185953447</v>
+        <v>0.6134090907636656</v>
       </c>
       <c r="C62">
-        <v>0.335168435323737</v>
+        <v>0.4364691570262551</v>
       </c>
       <c r="D62">
-        <v>0.003797752462186042</v>
+        <v>0.001809707100131786</v>
       </c>
       <c r="E62">
-        <v>0.007402575516163271</v>
+        <v>0.01353748924991794</v>
       </c>
       <c r="F62">
-        <v>0.08544561810256893</v>
+        <v>0.01477455586002943</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5154,19 +5157,19 @@
         <v>58</v>
       </c>
       <c r="B63">
-        <v>0.5697372242034391</v>
+        <v>0.61509610922483</v>
       </c>
       <c r="C63">
-        <v>0.3356389423934902</v>
+        <v>0.4352248284857528</v>
       </c>
       <c r="D63">
-        <v>0.003608071122947629</v>
+        <v>0.001763769393052414</v>
       </c>
       <c r="E63">
-        <v>0.007029494470659209</v>
+        <v>0.01323585609977327</v>
       </c>
       <c r="F63">
-        <v>0.08398626780946383</v>
+        <v>0.01467943679659127</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5174,19 +5177,19 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>0.571213157117086</v>
+        <v>0.6167008508291225</v>
       </c>
       <c r="C64">
-        <v>0.336166196923798</v>
+        <v>0.4340608963523328</v>
       </c>
       <c r="D64">
-        <v>0.00342859911933375</v>
+        <v>0.001719137668586381</v>
       </c>
       <c r="E64">
-        <v>0.006675687563352141</v>
+        <v>0.01293961344098687</v>
       </c>
       <c r="F64">
-        <v>0.08251635927643002</v>
+        <v>0.01457950170897126</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5194,19 +5197,19 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>0.5726171079369478</v>
+        <v>0.6182273282659904</v>
       </c>
       <c r="C65">
-        <v>0.3367448888607886</v>
+        <v>0.4329730919337667</v>
       </c>
       <c r="D65">
-        <v>0.003258769808283507</v>
+        <v>0.001675768648575036</v>
       </c>
       <c r="E65">
-        <v>0.006340248242159461</v>
+        <v>0.01264878040850407</v>
       </c>
       <c r="F65">
-        <v>0.08103898515182062</v>
+        <v>0.01447503074316363</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5214,19 +5217,19 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>0.5739525872709781</v>
+        <v>0.6196793585237178</v>
       </c>
       <c r="C66">
-        <v>0.3373700594779763</v>
+        <v>0.4319573600382222</v>
       </c>
       <c r="D66">
-        <v>0.003098045746214292</v>
+        <v>0.00163362057134889</v>
       </c>
       <c r="E66">
-        <v>0.006022293105600208</v>
+        <v>0.01236336476090105</v>
       </c>
       <c r="F66">
-        <v>0.07955701439923105</v>
+        <v>0.01436629610580982</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5234,19 +5237,19 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>0.5752229345127694</v>
+        <v>0.6210605724338836</v>
       </c>
       <c r="C67">
-        <v>0.338037080500345</v>
+        <v>0.4310098485171283</v>
       </c>
       <c r="D67">
-        <v>0.002945917778947459</v>
+        <v>0.001592653163446499</v>
       </c>
       <c r="E67">
-        <v>0.005720964664502707</v>
+        <v>0.0120833638642254</v>
       </c>
       <c r="F67">
-        <v>0.07807310254343539</v>
+        <v>0.01425356202131593</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5254,19 +5257,19 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>0.5764313261917754</v>
+        <v>0.6223744237503301</v>
       </c>
       <c r="C68">
-        <v>0.3387416343670963</v>
+        <v>0.4301268983132596</v>
       </c>
       <c r="D68">
-        <v>0.002801904041463953</v>
+        <v>0.001552827606941261</v>
       </c>
       <c r="E68">
-        <v>0.005435433429346099</v>
+        <v>0.01180876561491407</v>
       </c>
       <c r="F68">
-        <v>0.0765897019703182</v>
+        <v>0.01413708471455469</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5274,19 +5277,19 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>0.5775807839162885</v>
+        <v>0.6236241977853463</v>
       </c>
       <c r="C69">
-        <v>0.3394796955840456</v>
+        <v>0.4293050339903533</v>
       </c>
       <c r="D69">
-        <v>0.002665548895875701</v>
+        <v>0.001514106503282611</v>
       </c>
       <c r="E69">
-        <v>0.005164899417143071</v>
+        <v>0.01153954930414639</v>
       </c>
       <c r="F69">
-        <v>0.07510907218664709</v>
+        <v>0.01401711241687118</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5294,19 +5297,19 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>0.5786741819290336</v>
+        <v>0.6248130196246583</v>
       </c>
       <c r="C70">
-        <v>0.3402475131163836</v>
+        <v>0.428540954721589</v>
       </c>
       <c r="D70">
-        <v>0.002536421830926018</v>
+        <v>0.001476453834443852</v>
       </c>
       <c r="E70">
-        <v>0.004908593162183197</v>
+        <v>0.01127568642606821</v>
       </c>
       <c r="F70">
-        <v>0.07363328996147345</v>
+        <v>0.01389388539324041</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5314,19 +5317,19 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>0.5797142542942713</v>
+        <v>0.6259438619417712</v>
       </c>
       <c r="C71">
-        <v>0.3410415937728039</v>
+        <v>0.4278315257152417</v>
       </c>
       <c r="D71">
-        <v>0.002414116342008036</v>
+        <v>0.001439834922065138</v>
       </c>
       <c r="E71">
-        <v>0.004665776305877186</v>
+        <v>0.01101714143237026</v>
       </c>
       <c r="F71">
-        <v>0.07216425928503956</v>
+        <v>0.01376763598855141</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5334,19 +5337,19 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>0.5807036017343814</v>
+        <v>0.6270195524312001</v>
       </c>
       <c r="C72">
-        <v>0.3418586865327018</v>
+        <v>0.4271737700567728</v>
       </c>
       <c r="D72">
-        <v>0.002298248807022518</v>
+        <v>0.001404216385186643</v>
       </c>
       <c r="E72">
-        <v>0.004435741832448639</v>
+        <v>0.0107638724357246</v>
       </c>
       <c r="F72">
-        <v>0.0707037210934454</v>
+        <v>0.01363858869111558</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5354,19 +5357,19 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>0.5816446981330238</v>
+        <v>0.6280427808791785</v>
       </c>
       <c r="C73">
-        <v>0.3426957677691905</v>
+        <v>0.4265648609475394</v>
       </c>
       <c r="D73">
-        <v>0.002188457370300771</v>
+        <v>0.00136956609708299</v>
       </c>
       <c r="E73">
-        <v>0.004217814009355151</v>
+        <v>0.01051583186458113</v>
       </c>
       <c r="F73">
-        <v>0.06925326271812957</v>
+        <v>0.01350696021161765</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5374,19 +5377,19 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>0.5825398967211346</v>
+        <v>0.6290161058895244</v>
       </c>
       <c r="C74">
-        <v>0.3435500273219583</v>
+        <v>0.4260021143211916</v>
       </c>
       <c r="D74">
-        <v>0.002084400844218312</v>
+        <v>0.001335853141635088</v>
       </c>
       <c r="E74">
-        <v>0.004011348084103011</v>
+        <v>0.01027296707180504</v>
       </c>
       <c r="F74">
-        <v>0.06781432702858563</v>
+        <v>0.01337295957584357</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5394,19 +5397,19 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>0.583391435961229</v>
+        <v>0.6299419612814816</v>
       </c>
       <c r="C75">
-        <v>0.3444188553754637</v>
+        <v>0.4254829818196788</v>
       </c>
       <c r="D75">
-        <v>0.00198575763595176</v>
+        <v>0.001303047769608835</v>
       </c>
       <c r="E75">
-        <v>0.003815729782547694</v>
+        <v>0.01003522089959867</v>
       </c>
       <c r="F75">
-        <v>0.06638822124480762</v>
+        <v>0.01323678822963185</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5414,19 +5417,19 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>0.5842014451447231</v>
+        <v>0.6308226621755351</v>
       </c>
       <c r="C76">
-        <v>0.3452998300995553</v>
+        <v>0.4250050441116098</v>
       </c>
       <c r="D76">
-        <v>0.001892224705024216</v>
+        <v>0.001271121355151144</v>
       </c>
       <c r="E76">
-        <v>0.003630374647830056</v>
+        <v>0.009802532203101216</v>
       </c>
       <c r="F76">
-        <v>0.06497612540286722</v>
+        <v>0.01309864015460246</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5434,19 +5437,19 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>0.5849719497162703</v>
+        <v>0.6316604107824173</v>
       </c>
       <c r="C77">
-        <v>0.3461907060112834</v>
+        <v>0.4245660045365021</v>
       </c>
       <c r="D77">
-        <v>0.001803516555789469</v>
+        <v>0.001240046352761688</v>
       </c>
       <c r="E77">
-        <v>0.003454727253758867</v>
+        <v>0.009574836334998209</v>
       </c>
       <c r="F77">
-        <v>0.06357910046289776</v>
+        <v>0.01295870199332042</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5454,19 +5457,19 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>0.5857048763384283</v>
+        <v>0.6324573019097818</v>
       </c>
       <c r="C78">
-        <v>0.3470894030184031</v>
+        <v>0.424163683059212</v>
       </c>
       <c r="D78">
-        <v>0.001719364267775881</v>
+        <v>0.001209796254953032</v>
       </c>
       <c r="E78">
-        <v>0.003288260321680807</v>
+        <v>0.009352065593403246</v>
       </c>
       <c r="F78">
-        <v>0.06219809605371179</v>
+        <v>0.01281715318264965</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5474,19 +5477,19 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>0.5864020577093177</v>
+        <v>0.6332153282003125</v>
       </c>
       <c r="C79">
-        <v>0.3479939961068144</v>
+        <v>0.4237960105195713</v>
       </c>
       <c r="D79">
-        <v>0.001639514565805859</v>
+        <v>0.00118034555077187</v>
       </c>
       <c r="E79">
-        <v>0.003130473765641022</v>
+        <v>0.009134149635198001</v>
       </c>
       <c r="F79">
-        <v>0.06083395785242083</v>
+        <v>0.01267416609414601</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5494,19 +5497,19 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>0.5870652371453221</v>
+        <v>0.6339363851143681</v>
       </c>
       <c r="C80">
-        <v>0.3489027056359413</v>
+        <v>0.4234610231629496</v>
       </c>
       <c r="D80">
-        <v>0.001563728930991334</v>
+        <v>0.001151669685319203</v>
       </c>
       <c r="E80">
-        <v>0.002980893686890496</v>
+        <v>0.0089210158569354</v>
       </c>
       <c r="F80">
-        <v>0.05948743460085466</v>
+        <v>0.01252990618042735</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5514,19 +5517,19 @@
         <v>76</v>
       </c>
       <c r="B81">
-        <v>0.5876960729402859</v>
+        <v>0.6346222756696197</v>
       </c>
       <c r="C81">
-        <v>0.3498138882077788</v>
+        <v>0.4231568574381344</v>
       </c>
       <c r="D81">
-        <v>0.001491782753049229</v>
+        <v>0.00112374502037714</v>
       </c>
       <c r="E81">
-        <v>0.00283907133549959</v>
+        <v>0.008712589745326084</v>
       </c>
       <c r="F81">
-        <v>0.05815918476338629</v>
+        <v>0.01238453212654235</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5534,19 +5537,19 @@
         <v>77</v>
       </c>
       <c r="B82">
-        <v>0.588296142512113</v>
+        <v>0.6352747149495336</v>
       </c>
       <c r="C82">
-        <v>0.3507260280770427</v>
+        <v>0.4228817450495616</v>
       </c>
       <c r="D82">
-        <v>0.00142346452385756</v>
+        <v>0.001096548796223905</v>
       </c>
       <c r="E82">
-        <v>0.002704582053949203</v>
+        <v>0.008508795199241378</v>
       </c>
       <c r="F82">
-        <v>0.05684978283303729</v>
+        <v>0.01223819600543931</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5554,19 +5557,19 @@
         <v>78</v>
       </c>
       <c r="B83">
-        <v>0.5888669463471323</v>
+        <v>0.6358953343919728</v>
       </c>
       <c r="C83">
-        <v>0.3516377290715126</v>
+        <v>0.4226340082515421</v>
       </c>
       <c r="D83">
-        <v>0.001358575071760538</v>
+        <v>0.001070059094696228</v>
       </c>
       <c r="E83">
-        <v>0.00257702421505262</v>
+        <v>0.008309554825077902</v>
       </c>
       <c r="F83">
-        <v>0.05555972529454171</v>
+        <v>0.01209104343671078</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5574,19 +5577,19 @@
         <v>79</v>
       </c>
       <c r="B84">
-        <v>0.5894099117520947</v>
+        <v>0.636485685868641</v>
       </c>
       <c r="C84">
-        <v>0.3525477069932708</v>
+        <v>0.4224120553727189</v>
       </c>
       <c r="D84">
-        <v>0.001296926835810881</v>
+        <v>0.001044254803539188</v>
       </c>
       <c r="E84">
-        <v>0.002456018164374408</v>
+        <v>0.008114790207240593</v>
       </c>
       <c r="F84">
-        <v>0.05428943625444905</v>
+        <v>0.01194321374786024</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5594,19 +5597,19 @@
         <v>80</v>
       </c>
       <c r="B85">
-        <v>0.5899263964231831</v>
+        <v>0.6370472455655698</v>
       </c>
       <c r="C85">
-        <v>0.3534547824730931</v>
+        <v>0.4222143765595465</v>
       </c>
       <c r="D85">
-        <v>0.001238343178893687</v>
+        <v>0.001019115582067292</v>
       </c>
       <c r="E85">
-        <v>0.002341205175422249</v>
+        <v>0.00792442215541315</v>
       </c>
       <c r="F85">
-        <v>0.05303927274940768</v>
+        <v>0.01179484013740307</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5614,19 +5617,19 @@
         <v>81</v>
       </c>
       <c r="B86">
-        <v>0.5904176918409598</v>
+        <v>0.6375814176743525</v>
       </c>
       <c r="C86">
-        <v>0.3543578742517448</v>
+        <v>0.4220395397281266</v>
       </c>
       <c r="D86">
-        <v>0.001182657738495128</v>
+        <v>0.0009946218281468885</v>
       </c>
       <c r="E86">
-        <v>0.002232246424260417</v>
+        <v>0.007738370930198155</v>
       </c>
       <c r="F86">
-        <v>0.05180952974453974</v>
+        <v>0.01164604983917568</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5634,19 +5637,19 @@
         <v>82</v>
       </c>
       <c r="B87">
-        <v>0.5908850264997403</v>
+        <v>0.6380895379033538</v>
       </c>
       <c r="C87">
-        <v>0.3552559928633681</v>
+        <v>0.4218861867142387</v>
       </c>
       <c r="D87">
-        <v>0.001129713813749611</v>
+        <v>0.0009707546464984896</v>
       </c>
       <c r="E87">
-        <v>0.002128821988799249</v>
+        <v>0.007556556448624176</v>
       </c>
       <c r="F87">
-        <v>0.05060044483434265</v>
+        <v>0.01149696428728464</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5654,19 +5657,19 @@
         <v>83</v>
       </c>
       <c r="B88">
-        <v>0.5913295689794682</v>
+        <v>0.638572876817676</v>
       </c>
       <c r="C88">
-        <v>0.3561482346975235</v>
+        <v>0.4217530296118999</v>
       </c>
       <c r="D88">
-        <v>0.0010793637873114</v>
+        <v>0.0009474958183080937</v>
       </c>
       <c r="E88">
-        <v>0.002030629876825776</v>
+        <v>0.00737889847093414</v>
       </c>
       <c r="F88">
-        <v>0.04941220265887099</v>
+        <v>0.01134769928118155</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5674,19 +5677,19 @@
         <v>84</v>
       </c>
       <c r="B89">
-        <v>0.591752430867774</v>
+        <v>0.639032643016234</v>
       </c>
       <c r="C89">
-        <v>0.3570337764177526</v>
+        <v>0.4216388472912488</v>
       </c>
       <c r="D89">
-        <v>0.001031468580543023</v>
+        <v>0.0009248277721287231</v>
       </c>
       <c r="E89">
-        <v>0.001937385085831497</v>
+        <v>0.007205316769988773</v>
       </c>
       <c r="F89">
-        <v>0.04824493904809875</v>
+        <v>0.01119836515039942</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5694,19 +5697,19 @@
         <v>85</v>
       </c>
       <c r="B90">
-        <v>0.5921546695395224</v>
+        <v>0.6394699861538805</v>
       </c>
       <c r="C90">
-        <v>0.3579118697157819</v>
+        <v>0.4215424820869977</v>
       </c>
       <c r="D90">
-        <v>0.0009858971404864501</v>
+        <v>0.0009027335560470697</v>
       </c>
       <c r="E90">
-        <v>0.001848818696841341</v>
+        <v>0.007035731284540996</v>
       </c>
       <c r="F90">
-        <v>0.04709874490736771</v>
+        <v>0.01104906691853345</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5714,19 +5717,19 @@
         <v>86</v>
       </c>
       <c r="B91">
-        <v>0.5925372908008005</v>
+        <v>0.6398859998161428</v>
       </c>
       <c r="C91">
-        <v>0.3587818363816707</v>
+        <v>0.4214628366491175</v>
       </c>
       <c r="D91">
-        <v>0.0009425259570785591</v>
+        <v>0.0008811968110850622</v>
       </c>
       <c r="E91">
-        <v>0.001764677003732963</v>
+        <v>0.006870062257562128</v>
       </c>
       <c r="F91">
-        <v>0.0459736698567171</v>
+        <v>0.01089990446609217</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5734,19 +5737,19 @@
         <v>87</v>
       </c>
       <c r="B92">
-        <v>0.592901251403956</v>
+        <v>0.6402817242537554</v>
       </c>
       <c r="C92">
-        <v>0.3596430636713336</v>
+        <v>0.421398870947828</v>
       </c>
       <c r="D92">
-        <v>0.0009012386090850353</v>
+        <v>0.0008602017458022048</v>
       </c>
       <c r="E92">
-        <v>0.001684720678939426</v>
+        <v>0.006708230360728736</v>
       </c>
       <c r="F92">
-        <v>0.04486972563668587</v>
+        <v>0.01075097269188525</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5754,19 +5757,19 @@
         <v>88</v>
       </c>
       <c r="B93">
-        <v>0.5932474614399764</v>
+        <v>0.6406581489838286</v>
       </c>
       <c r="C93">
-        <v>0.3604949999539344</v>
+        <v>0.4213495994253478</v>
       </c>
       <c r="D93">
-        <v>0.0008619253372530171</v>
+        <v>0.0008397331120615254</v>
       </c>
       <c r="E93">
-        <v>0.001608723975934967</v>
+        <v>0.006550156806109955</v>
       </c>
       <c r="F93">
-        <v>0.04378688929290107</v>
+        <v>0.01060236167265179</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5774,19 +5777,19 @@
         <v>89</v>
       </c>
       <c r="B94">
-        <v>0.5935767866141907</v>
+        <v>0.6410162152641561</v>
       </c>
       <c r="C94">
-        <v>0.3613371506226614</v>
+        <v>0.4213140882872277</v>
       </c>
       <c r="D94">
-        <v>0.0008244826432191356</v>
+        <v>0.0008197761819197647</v>
       </c>
       <c r="E94">
-        <v>0.001536473968498736</v>
+        <v>0.006395763446029273</v>
       </c>
       <c r="F94">
-        <v>0.04272510615142995</v>
+        <v>0.01045415682066689</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5794,19 +5797,19 @@
         <v>90</v>
       </c>
       <c r="B95">
-        <v>0.5938900504109826</v>
+        <v>0.6413568184468499</v>
       </c>
       <c r="C95">
-        <v>0.362169074253348</v>
+        <v>0.4212914529264404</v>
       </c>
       <c r="D95">
-        <v>0.0007888129127536731</v>
+        <v>0.0008003167256009298</v>
       </c>
       <c r="E95">
-        <v>0.001467769826422483</v>
+        <v>0.006244972862012065</v>
       </c>
       <c r="F95">
-        <v>0.04168429259649312</v>
+        <v>0.01030643903909645</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5814,19 +5817,19 @@
         <v>91</v>
       </c>
       <c r="B96">
-        <v>0.5941880361529309</v>
+        <v>0.6416808102171865</v>
       </c>
       <c r="C96">
-        <v>0.3629903789963095</v>
+        <v>0.421280855473732</v>
       </c>
       <c r="D96">
-        <v>0.0007548240619712078</v>
+        <v>0.0007813409905114024</v>
       </c>
       <c r="E96">
-        <v>0.001402422127064269</v>
+        <v>0.006097708443670503</v>
       </c>
       <c r="F96">
-        <v>0.04066433866172398</v>
+        <v>0.01015928487489934</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5834,19 +5837,19 @@
         <v>92</v>
       </c>
       <c r="B97">
-        <v>0.5944714889595234</v>
+        <v>0.6419890007232635</v>
       </c>
       <c r="C97">
-        <v>0.363800719187619</v>
+        <v>0.421281502468058</v>
       </c>
       <c r="D97">
-        <v>0.0007224292051916145</v>
+        <v>0.0007628356812543551</v>
       </c>
       <c r="E97">
-        <v>0.001340252201941645</v>
+        <v>0.005953894458321012</v>
       </c>
       <c r="F97">
-        <v>0.03966511044572423</v>
+        <v>0.01001276666910293</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5854,19 +5857,19 @@
         <v>93</v>
       </c>
       <c r="B98">
-        <v>0.5947411176103435</v>
+        <v>0.6422821606017916</v>
       </c>
       <c r="C98">
-        <v>0.3645997921668528</v>
+        <v>0.4212926426412283</v>
       </c>
       <c r="D98">
-        <v>0.0006915463431912589</v>
+        <v>0.0007447879406012016</v>
       </c>
       <c r="E98">
-        <v>0.001281091517396072</v>
+        <v>0.005813456112075863</v>
       </c>
       <c r="F98">
-        <v>0.03868645236221619</v>
+        <v>0.009866952704302769</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5874,19 +5877,19 @@
         <v>94</v>
       </c>
       <c r="B99">
-        <v>0.5949975963173885</v>
+        <v>0.6425610229050877</v>
       </c>
       <c r="C99">
-        <v>0.3653873352890963</v>
+        <v>0.421313564811174</v>
       </c>
       <c r="D99">
-        <v>0.0006620980706415387</v>
+        <v>0.0007271853313781141</v>
       </c>
       <c r="E99">
-        <v>0.001224781088238261</v>
+        <v>0.005676319603099972</v>
       </c>
       <c r="F99">
-        <v>0.03772818923463532</v>
+        <v>0.009721907349259913</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5894,19 +5897,19 @@
         <v>95</v>
       </c>
       <c r="B100">
-        <v>0.5952415664109498</v>
+        <v>0.6428262849340871</v>
       </c>
       <c r="C100">
-        <v>0.3661631231197174</v>
+        <v>0.42134359587852</v>
       </c>
       <c r="D100">
-        <v>0.0006340113015896816</v>
+        <v>0.0007100158192262281</v>
       </c>
       <c r="E100">
-        <v>0.001171170923195348</v>
+        <v>0.005542412167676239</v>
       </c>
       <c r="F100">
-        <v>0.03679012824454755</v>
+        <v>0.009577691200490067</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5914,19 +5917,19 @@
         <v>96</v>
       </c>
       <c r="B101">
-        <v>0.5954736379432737</v>
+        <v>0.6430786099819592</v>
       </c>
       <c r="C101">
-        <v>0.3669269648010927</v>
+        <v>0.4213820989214098</v>
       </c>
       <c r="D101">
-        <v>0.000607217011894209</v>
+        <v>0.0006932677561949658</v>
       </c>
       <c r="E101">
-        <v>0.001120119500919825</v>
+        <v>0.005411662119677853</v>
       </c>
       <c r="F101">
-        <v>0.03587206074281945</v>
+        <v>0.009434361220757775</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5934,19 +5937,19 @@
         <v>97</v>
       </c>
       <c r="B102">
-        <v>0.5956943912140085</v>
+        <v>0.6433186289926854</v>
       </c>
       <c r="C102">
-        <v>0.3676787015811056</v>
+        <v>0.4214284713837755</v>
       </c>
       <c r="D102">
-        <v>0.0005816499975841551</v>
+        <v>0.0006769298651288945</v>
       </c>
       <c r="E102">
-        <v>0.001071493275282341</v>
+        <v>0.005283998884003661</v>
       </c>
       <c r="F102">
-        <v>0.03497376393201925</v>
+        <v>0.009291970874406089</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5954,19 +5957,19 @@
         <v>98</v>
       </c>
       <c r="B103">
-        <v>0.5959043782212563</v>
+        <v>0.6435469421387476</v>
       </c>
       <c r="C103">
-        <v>0.3684182044938398</v>
+        <v>0.4214821433524814</v>
       </c>
       <c r="D103">
-        <v>0.0005572486481665626</v>
+        <v>0.0006609912248096677</v>
       </c>
       <c r="E103">
-        <v>0.001025166208651632</v>
+        <v>0.005159353024493027</v>
       </c>
       <c r="F103">
-        <v>0.03409500242808548</v>
+        <v>0.009150570259467901</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5974,19 +5977,19 @@
         <v>99</v>
       </c>
       <c r="B104">
-        <v>0.5961041240418556</v>
+        <v>0.6437641203218719</v>
       </c>
       <c r="C104">
-        <v>0.3691453721834512</v>
+        <v>0.4215425759189931</v>
       </c>
       <c r="D104">
-        <v>0.000533954733960646</v>
+        <v>0.0006454412558158242</v>
       </c>
       <c r="E104">
-        <v>0.000981019331861719</v>
+        <v>0.005037656266799296</v>
       </c>
       <c r="F104">
-        <v>0.03323552970887064</v>
+        <v>0.009010206236519448</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5994,19 +5997,19 @@
         <v>100</v>
       </c>
       <c r="B105">
-        <v>0.5962941281443466</v>
+        <v>0.6439707066005803</v>
       </c>
       <c r="C105">
-        <v>0.3698601288627373</v>
+        <v>0.4216092596214393</v>
       </c>
       <c r="D105">
-        <v>0.0005117132065890691</v>
+        <v>0.000630269707064529</v>
       </c>
       <c r="E105">
-        <v>0.0009389403295758919</v>
+        <v>0.004918841516666056</v>
       </c>
       <c r="F105">
-        <v>0.03239508945675094</v>
+        <v>0.008870922554249393</v>
       </c>
     </row>
   </sheetData>
